--- a/data/china_ie_partner/2019-04.xlsx
+++ b/data/china_ie_partner/2019-04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7E1FB4-31C4-F348-A463-3AD4BE8EFEEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE9E777-77FC-AD42-8445-F5FBC7252CFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,666 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
     <t>month</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -703,79 +46,980 @@
     <t>year</t>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -844,10 +1088,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1223,7 +1468,7 @@
   <dimension ref="A1:J249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A245"/>
+      <selection activeCell="D2" sqref="D2:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1239,24 +1484,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
+      <c r="A2" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="3">
-        <v>30698</v>
+        <v>45644</v>
       </c>
       <c r="C2" s="3">
-        <v>30028</v>
+        <v>44646</v>
       </c>
       <c r="D2" s="2">
-        <v>670</v>
+        <v>998</v>
       </c>
       <c r="E2" s="8">
         <v>2019</v>
@@ -1270,17 +1515,17 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
+      <c r="A3" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="3">
-        <v>82631</v>
+        <v>122817</v>
       </c>
       <c r="C3" s="3">
-        <v>72072</v>
+        <v>107166</v>
       </c>
       <c r="D3" s="3">
-        <v>10559</v>
+        <v>15651</v>
       </c>
       <c r="E3" s="8">
         <v>2019</v>
@@ -1294,17 +1539,17 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
+      <c r="A4" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>1013307</v>
+        <v>1505867</v>
       </c>
       <c r="C4" s="3">
-        <v>952175</v>
+        <v>1414814</v>
       </c>
       <c r="D4" s="3">
-        <v>61132</v>
+        <v>91053</v>
       </c>
       <c r="E4" s="8">
         <v>2019</v>
@@ -1318,14 +1563,14 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
+      <c r="A5" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="C5" s="2">
-        <v>202</v>
+        <v>301</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1342,17 +1587,17 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="21">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
+      <c r="A6" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>30651</v>
+        <v>45607</v>
       </c>
       <c r="C6" s="3">
-        <v>29562</v>
+        <v>43984</v>
       </c>
       <c r="D6" s="3">
-        <v>1089</v>
+        <v>1623</v>
       </c>
       <c r="E6" s="8">
         <v>2019</v>
@@ -1366,17 +1611,17 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
+      <c r="A7" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>1048338</v>
+        <v>1559087</v>
       </c>
       <c r="C7" s="3">
-        <v>649094</v>
+        <v>965333</v>
       </c>
       <c r="D7" s="3">
-        <v>399244</v>
+        <v>593754</v>
       </c>
       <c r="E7" s="8">
         <v>2019</v>
@@ -1390,17 +1635,17 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
+      <c r="A8" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>489219</v>
+        <v>727923</v>
       </c>
       <c r="C8" s="3">
-        <v>403337</v>
+        <v>600025</v>
       </c>
       <c r="D8" s="3">
-        <v>85882</v>
+        <v>127899</v>
       </c>
       <c r="E8" s="8">
         <v>2019</v>
@@ -1414,17 +1659,17 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="7" t="s">
-        <v>11</v>
+      <c r="A9" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>36484</v>
+        <v>54122</v>
       </c>
       <c r="C9" s="3">
-        <v>34253</v>
+        <v>50817</v>
       </c>
       <c r="D9" s="3">
-        <v>2232</v>
+        <v>3304</v>
       </c>
       <c r="E9" s="8">
         <v>2019</v>
@@ -1438,17 +1683,17 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
+      <c r="A10" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>162122</v>
+        <v>241460</v>
       </c>
       <c r="C10" s="3">
-        <v>146819</v>
+        <v>218704</v>
       </c>
       <c r="D10" s="3">
-        <v>15303</v>
+        <v>22756</v>
       </c>
       <c r="E10" s="8">
         <v>2019</v>
@@ -1463,16 +1708,16 @@
     </row>
     <row r="11" spans="1:10" ht="21">
       <c r="A11" s="10" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>15212227</v>
+        <v>22648666</v>
       </c>
       <c r="C11" s="3">
-        <v>14694351</v>
+        <v>21878023</v>
       </c>
       <c r="D11" s="3">
-        <v>517876</v>
+        <v>770643</v>
       </c>
       <c r="E11" s="8">
         <v>2019</v>
@@ -1486,17 +1731,17 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
+      <c r="A12" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>4746492</v>
+        <v>7062837</v>
       </c>
       <c r="C12" s="3">
-        <v>3591440</v>
+        <v>5343143</v>
       </c>
       <c r="D12" s="3">
-        <v>1155053</v>
+        <v>1719694</v>
       </c>
       <c r="E12" s="8">
         <v>2019</v>
@@ -1510,17 +1755,17 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
+      <c r="A13" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>4190872</v>
+        <v>6235250</v>
       </c>
       <c r="C13" s="3">
-        <v>2376492</v>
+        <v>3535446</v>
       </c>
       <c r="D13" s="3">
-        <v>1814380</v>
+        <v>2699804</v>
       </c>
       <c r="E13" s="8">
         <v>2019</v>
@@ -1534,17 +1779,17 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="7" t="s">
-        <v>15</v>
+      <c r="A14" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>2142012</v>
+        <v>3189153</v>
       </c>
       <c r="C14" s="3">
-        <v>672741</v>
+        <v>1000762</v>
       </c>
       <c r="D14" s="3">
-        <v>1469270</v>
+        <v>2188391</v>
       </c>
       <c r="E14" s="8">
         <v>2019</v>
@@ -1558,17 +1803,17 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="7" t="s">
-        <v>16</v>
+      <c r="A15" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>1622518</v>
+        <v>2415448</v>
       </c>
       <c r="C15" s="3">
-        <v>512114</v>
+        <v>762137</v>
       </c>
       <c r="D15" s="3">
-        <v>1110404</v>
+        <v>1653312</v>
       </c>
       <c r="E15" s="8">
         <v>2019</v>
@@ -1582,17 +1827,17 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="7" t="s">
-        <v>17</v>
+      <c r="A16" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>720922</v>
+        <v>1072757</v>
       </c>
       <c r="C16" s="3">
-        <v>495569</v>
+        <v>737180</v>
       </c>
       <c r="D16" s="3">
-        <v>225353</v>
+        <v>335577</v>
       </c>
       <c r="E16" s="8">
         <v>2019</v>
@@ -1606,17 +1851,17 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="7" t="s">
-        <v>18</v>
+      <c r="A17" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>17323299</v>
+        <v>25810432</v>
       </c>
       <c r="C17" s="3">
-        <v>6898946</v>
+        <v>10270908</v>
       </c>
       <c r="D17" s="3">
-        <v>10424353</v>
+        <v>15539523</v>
       </c>
       <c r="E17" s="8">
         <v>2019</v>
@@ -1630,17 +1875,17 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="7" t="s">
-        <v>19</v>
+      <c r="A18" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>242333</v>
+        <v>360491</v>
       </c>
       <c r="C18" s="3">
-        <v>218721</v>
+        <v>325356</v>
       </c>
       <c r="D18" s="3">
-        <v>23612</v>
+        <v>35135</v>
       </c>
       <c r="E18" s="8">
         <v>2019</v>
@@ -1654,17 +1899,17 @@
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="21">
-      <c r="A19" s="7" t="s">
-        <v>20</v>
+      <c r="A19" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>1158264</v>
+        <v>1724903</v>
       </c>
       <c r="C19" s="3">
-        <v>201585</v>
+        <v>299648</v>
       </c>
       <c r="D19" s="3">
-        <v>956679</v>
+        <v>1425255</v>
       </c>
       <c r="E19" s="8">
         <v>2019</v>
@@ -1678,17 +1923,17 @@
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="7" t="s">
-        <v>21</v>
+      <c r="A20" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>220359</v>
+        <v>327749</v>
       </c>
       <c r="C20" s="3">
-        <v>98451</v>
+        <v>146413</v>
       </c>
       <c r="D20" s="3">
-        <v>121908</v>
+        <v>181337</v>
       </c>
       <c r="E20" s="8">
         <v>2019</v>
@@ -1702,17 +1947,17 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="7" t="s">
-        <v>22</v>
+      <c r="A21" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>109582</v>
+        <v>163023</v>
       </c>
       <c r="C21" s="3">
-        <v>108836</v>
-      </c>
-      <c r="D21" s="2">
-        <v>745</v>
+        <v>161913</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1110</v>
       </c>
       <c r="E21" s="8">
         <v>2019</v>
@@ -1726,17 +1971,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="7" t="s">
-        <v>225</v>
+      <c r="A22" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>163155</v>
+        <v>242869</v>
       </c>
       <c r="C22" s="3">
-        <v>159644</v>
+        <v>237643</v>
       </c>
       <c r="D22" s="3">
-        <v>3511</v>
+        <v>5226</v>
       </c>
       <c r="E22" s="8">
         <v>2019</v>
@@ -1750,17 +1995,17 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="7" t="s">
-        <v>221</v>
+      <c r="A23" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>6596187</v>
+        <v>9816156</v>
       </c>
       <c r="C23" s="3">
-        <v>2785380</v>
+        <v>4142454</v>
       </c>
       <c r="D23" s="3">
-        <v>3810807</v>
+        <v>5673702</v>
       </c>
       <c r="E23" s="8">
         <v>2019</v>
@@ -1774,17 +2019,17 @@
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="7" t="s">
-        <v>23</v>
+      <c r="A24" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>16005</v>
+        <v>23822</v>
       </c>
       <c r="C24" s="3">
-        <v>15998</v>
+        <v>23811</v>
       </c>
       <c r="D24" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E24" s="8">
         <v>2019</v>
@@ -1798,17 +2043,17 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="7" t="s">
-        <v>24</v>
+      <c r="A25" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>555617</v>
+        <v>826849</v>
       </c>
       <c r="C25" s="3">
-        <v>101429</v>
+        <v>150906</v>
       </c>
       <c r="D25" s="3">
-        <v>454188</v>
+        <v>675943</v>
       </c>
       <c r="E25" s="8">
         <v>2019</v>
@@ -1822,17 +2067,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="7" t="s">
-        <v>226</v>
+      <c r="A26" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>76313</v>
+        <v>113524</v>
       </c>
       <c r="C26" s="3">
-        <v>74437</v>
+        <v>110747</v>
       </c>
       <c r="D26" s="3">
-        <v>1876</v>
+        <v>2777</v>
       </c>
       <c r="E26" s="8">
         <v>2019</v>
@@ -1846,17 +2091,17 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="7" t="s">
-        <v>25</v>
+      <c r="A27" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>1386492</v>
+        <v>2063861</v>
       </c>
       <c r="C27" s="3">
-        <v>165947</v>
+        <v>246846</v>
       </c>
       <c r="D27" s="3">
-        <v>1220545</v>
+        <v>1817015</v>
       </c>
       <c r="E27" s="8">
         <v>2019</v>
@@ -1870,17 +2115,17 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="7" t="s">
-        <v>26</v>
+      <c r="A28" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>997545</v>
+        <v>1483874</v>
       </c>
       <c r="C28" s="3">
-        <v>858108</v>
+        <v>1276161</v>
       </c>
       <c r="D28" s="3">
-        <v>139437</v>
+        <v>207712</v>
       </c>
       <c r="E28" s="8">
         <v>2019</v>
@@ -1894,17 +2139,17 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="7" t="s">
-        <v>27</v>
+      <c r="A29" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="3">
-        <v>4858</v>
+        <v>7221</v>
       </c>
       <c r="C29" s="3">
-        <v>4824</v>
+        <v>7171</v>
       </c>
       <c r="D29" s="2">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E29" s="8">
         <v>2019</v>
@@ -1918,17 +2163,17 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="7" t="s">
-        <v>28</v>
+      <c r="A30" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>3409216</v>
+        <v>5073390</v>
       </c>
       <c r="C30" s="3">
-        <v>2184210</v>
+        <v>3248985</v>
       </c>
       <c r="D30" s="3">
-        <v>1225006</v>
+        <v>1824405</v>
       </c>
       <c r="E30" s="8">
         <v>2019</v>
@@ -1942,17 +2187,17 @@
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="7" t="s">
-        <v>29</v>
+      <c r="A31" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="3">
-        <v>508781</v>
+        <v>756632</v>
       </c>
       <c r="C31" s="3">
-        <v>112525</v>
+        <v>167425</v>
       </c>
       <c r="D31" s="3">
-        <v>396255</v>
+        <v>589207</v>
       </c>
       <c r="E31" s="8">
         <v>2019</v>
@@ -1966,17 +2211,17 @@
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="7" t="s">
-        <v>30</v>
+      <c r="A32" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>4506860</v>
+        <v>6709781</v>
       </c>
       <c r="C32" s="3">
-        <v>1495772</v>
+        <v>2225335</v>
       </c>
       <c r="D32" s="3">
-        <v>3011088</v>
+        <v>4484446</v>
       </c>
       <c r="E32" s="8">
         <v>2019</v>
@@ -1990,17 +2235,17 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="7" t="s">
-        <v>31</v>
+      <c r="A33" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="3">
-        <v>5136057</v>
+        <v>7639432</v>
       </c>
       <c r="C33" s="3">
-        <v>2753127</v>
+        <v>4091058</v>
       </c>
       <c r="D33" s="3">
-        <v>2382930</v>
+        <v>3548373</v>
       </c>
       <c r="E33" s="8">
         <v>2019</v>
@@ -2014,17 +2259,17 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="7" t="s">
-        <v>32</v>
+      <c r="A34" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="3">
-        <v>16913109</v>
+        <v>25179542</v>
       </c>
       <c r="C34" s="3">
-        <v>6282141</v>
+        <v>9348205</v>
       </c>
       <c r="D34" s="3">
-        <v>10630967</v>
+        <v>15831337</v>
       </c>
       <c r="E34" s="8">
         <v>2019</v>
@@ -2038,17 +2283,17 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="7" t="s">
-        <v>33</v>
+      <c r="A35" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>215643</v>
+        <v>320842</v>
       </c>
       <c r="C35" s="3">
-        <v>195782</v>
+        <v>291282</v>
       </c>
       <c r="D35" s="3">
-        <v>19861</v>
+        <v>29560</v>
       </c>
       <c r="E35" s="8">
         <v>2019</v>
@@ -2062,17 +2307,17 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="7" t="s">
-        <v>34</v>
+      <c r="A36" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>75712</v>
+        <v>112632</v>
       </c>
       <c r="C36" s="3">
-        <v>75707</v>
+        <v>112624</v>
       </c>
       <c r="D36" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E36" s="8">
         <v>2019</v>
@@ -2086,17 +2331,17 @@
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="7" t="s">
-        <v>35</v>
+      <c r="A37" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>4960652</v>
+        <v>7382521</v>
       </c>
       <c r="C37" s="3">
-        <v>2150345</v>
+        <v>3198810</v>
       </c>
       <c r="D37" s="3">
-        <v>2810307</v>
+        <v>4183712</v>
       </c>
       <c r="E37" s="8">
         <v>2019</v>
@@ -2110,17 +2355,17 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="7" t="s">
-        <v>36</v>
+      <c r="A38" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="3">
-        <v>1120127</v>
+        <v>1665826</v>
       </c>
       <c r="C38" s="3">
-        <v>938612</v>
+        <v>1395830</v>
       </c>
       <c r="D38" s="3">
-        <v>181515</v>
+        <v>269995</v>
       </c>
       <c r="E38" s="8">
         <v>2019</v>
@@ -2134,17 +2379,17 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="7" t="s">
-        <v>37</v>
+      <c r="A39" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="3">
-        <v>2620604</v>
+        <v>3899839</v>
       </c>
       <c r="C39" s="3">
-        <v>1839642</v>
+        <v>2736690</v>
       </c>
       <c r="D39" s="3">
-        <v>780961</v>
+        <v>1163149</v>
       </c>
       <c r="E39" s="8">
         <v>2019</v>
@@ -2158,17 +2403,17 @@
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="7" t="s">
-        <v>38</v>
+      <c r="A40" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B40" s="3">
-        <v>226267</v>
+        <v>336810</v>
       </c>
       <c r="C40" s="3">
-        <v>180672</v>
+        <v>268860</v>
       </c>
       <c r="D40" s="3">
-        <v>45595</v>
+        <v>67949</v>
       </c>
       <c r="E40" s="8">
         <v>2019</v>
@@ -2182,17 +2427,17 @@
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="7" t="s">
-        <v>39</v>
+      <c r="A41" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B41" s="3">
-        <v>8140550</v>
+        <v>12112045</v>
       </c>
       <c r="C41" s="3">
-        <v>5225096</v>
+        <v>7772770</v>
       </c>
       <c r="D41" s="3">
-        <v>2915454</v>
+        <v>4339275</v>
       </c>
       <c r="E41" s="8">
         <v>2019</v>
@@ -2206,17 +2451,17 @@
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="7" t="s">
-        <v>40</v>
+      <c r="A42" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="3">
-        <v>7674062</v>
+        <v>11427594</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
       <c r="D42" s="3">
-        <v>7674062</v>
+        <v>11427594</v>
       </c>
       <c r="E42" s="8">
         <v>2019</v>
@@ -2231,16 +2476,16 @@
     </row>
     <row r="43" spans="1:10" ht="21">
       <c r="A43" s="10" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3">
-        <v>11942568</v>
+        <v>17778287</v>
       </c>
       <c r="C43" s="3">
-        <v>2866409</v>
+        <v>4266144</v>
       </c>
       <c r="D43" s="3">
-        <v>9076160</v>
+        <v>13512143</v>
       </c>
       <c r="E43" s="8">
         <v>2019</v>
@@ -2254,17 +2499,17 @@
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="7" t="s">
-        <v>41</v>
+      <c r="A44" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="3">
-        <v>6816</v>
+        <v>10133</v>
       </c>
       <c r="C44" s="3">
-        <v>6768</v>
+        <v>10061</v>
       </c>
       <c r="D44" s="2">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E44" s="8">
         <v>2019</v>
@@ -2278,17 +2523,17 @@
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="7" t="s">
-        <v>42</v>
+      <c r="A45" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="3">
-        <v>1227392</v>
+        <v>1827878</v>
       </c>
       <c r="C45" s="3">
-        <v>692351</v>
+        <v>1030779</v>
       </c>
       <c r="D45" s="3">
-        <v>535042</v>
+        <v>797099</v>
       </c>
       <c r="E45" s="8">
         <v>2019</v>
@@ -2302,17 +2547,17 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="7" t="s">
-        <v>43</v>
+      <c r="A46" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B46" s="3">
-        <v>325132</v>
+        <v>484280</v>
       </c>
       <c r="C46" s="3">
-        <v>323334</v>
+        <v>481600</v>
       </c>
       <c r="D46" s="3">
-        <v>1798</v>
+        <v>2680</v>
       </c>
       <c r="E46" s="8">
         <v>2019</v>
@@ -2326,17 +2571,17 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" ht="21">
-      <c r="A47" s="7" t="s">
-        <v>44</v>
+      <c r="A47" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B47" s="3">
-        <v>93990</v>
+        <v>139971</v>
       </c>
       <c r="C47" s="3">
-        <v>89214</v>
+        <v>132858</v>
       </c>
       <c r="D47" s="3">
-        <v>4776</v>
+        <v>7112</v>
       </c>
       <c r="E47" s="8">
         <v>2019</v>
@@ -2350,17 +2595,17 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="21">
-      <c r="A48" s="7" t="s">
-        <v>45</v>
+      <c r="A48" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="B48" s="3">
-        <v>524268</v>
+        <v>781261</v>
       </c>
       <c r="C48" s="3">
-        <v>14792</v>
+        <v>21996</v>
       </c>
       <c r="D48" s="3">
-        <v>509476</v>
+        <v>759266</v>
       </c>
       <c r="E48" s="8">
         <v>2019</v>
@@ -2374,17 +2619,17 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="7" t="s">
-        <v>227</v>
+      <c r="A49" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="B49" s="3">
-        <v>355933</v>
+        <v>529757</v>
       </c>
       <c r="C49" s="3">
-        <v>231563</v>
+        <v>344425</v>
       </c>
       <c r="D49" s="3">
-        <v>124370</v>
+        <v>185332</v>
       </c>
       <c r="E49" s="8">
         <v>2019</v>
@@ -2398,17 +2643,17 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="7" t="s">
-        <v>46</v>
+      <c r="A50" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="2">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C50" s="2">
-        <v>3</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E50" s="8">
         <v>2019</v>
@@ -2422,17 +2667,17 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" ht="21">
-      <c r="A51" s="7" t="s">
-        <v>47</v>
+      <c r="A51" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B51" s="3">
-        <v>12290953</v>
+        <v>18294315</v>
       </c>
       <c r="C51" s="3">
-        <v>6273622</v>
+        <v>9331069</v>
       </c>
       <c r="D51" s="3">
-        <v>6017331</v>
+        <v>8963247</v>
       </c>
       <c r="E51" s="8">
         <v>2019</v>
@@ -2446,17 +2691,17 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="7" t="s">
-        <v>48</v>
+      <c r="A52" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B52" s="3">
-        <v>450026</v>
+        <v>669520</v>
       </c>
       <c r="C52" s="3">
-        <v>384982</v>
+        <v>572586</v>
       </c>
       <c r="D52" s="3">
-        <v>65044</v>
+        <v>96933</v>
       </c>
       <c r="E52" s="8">
         <v>2019</v>
@@ -2470,17 +2715,17 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="7" t="s">
-        <v>49</v>
+      <c r="A53" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="3">
-        <v>1670492</v>
+        <v>2488924</v>
       </c>
       <c r="C53" s="3">
-        <v>132710</v>
+        <v>197357</v>
       </c>
       <c r="D53" s="3">
-        <v>1537782</v>
+        <v>2291567</v>
       </c>
       <c r="E53" s="8">
         <v>2019</v>
@@ -2494,17 +2739,17 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="7" t="s">
-        <v>50</v>
+      <c r="A54" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B54" s="3">
-        <v>167081</v>
+        <v>248444</v>
       </c>
       <c r="C54" s="3">
-        <v>156944</v>
+        <v>233338</v>
       </c>
       <c r="D54" s="3">
-        <v>10137</v>
+        <v>15107</v>
       </c>
       <c r="E54" s="8">
         <v>2019</v>
@@ -2518,17 +2763,17 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="7" t="s">
-        <v>51</v>
+      <c r="A55" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="B55" s="3">
-        <v>17573</v>
+        <v>26157</v>
       </c>
       <c r="C55" s="3">
-        <v>16313</v>
+        <v>24278</v>
       </c>
       <c r="D55" s="3">
-        <v>1260</v>
+        <v>1878</v>
       </c>
       <c r="E55" s="8">
         <v>2019</v>
@@ -2542,17 +2787,17 @@
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="7" t="s">
-        <v>52</v>
+      <c r="A56" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B56" s="3">
-        <v>4074</v>
+        <v>6067</v>
       </c>
       <c r="C56" s="3">
-        <v>2329</v>
+        <v>3466</v>
       </c>
       <c r="D56" s="3">
-        <v>1745</v>
+        <v>2600</v>
       </c>
       <c r="E56" s="8">
         <v>2019</v>
@@ -2566,17 +2811,17 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="7" t="s">
-        <v>228</v>
+      <c r="A57" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="B57" s="3">
-        <v>170038</v>
+        <v>253015</v>
       </c>
       <c r="C57" s="3">
-        <v>109581</v>
+        <v>163013</v>
       </c>
       <c r="D57" s="3">
-        <v>60457</v>
+        <v>90002</v>
       </c>
       <c r="E57" s="8">
         <v>2019</v>
@@ -2590,14 +2835,14 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="7" t="s">
-        <v>53</v>
+      <c r="A58" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="D58" s="2">
         <v>0</v>
@@ -2614,17 +2859,17 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="7" t="s">
-        <v>54</v>
+      <c r="A59" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="B59" s="3">
-        <v>3802</v>
+        <v>5651</v>
       </c>
       <c r="C59" s="3">
-        <v>3799</v>
+        <v>5647</v>
       </c>
       <c r="D59" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" s="8">
         <v>2019</v>
@@ -2638,17 +2883,17 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="7" t="s">
-        <v>55</v>
+      <c r="A60" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="B60" s="3">
-        <v>2877</v>
-      </c>
-      <c r="C60" s="2">
-        <v>945</v>
+        <v>4259</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1406</v>
       </c>
       <c r="D60" s="3">
-        <v>1932</v>
+        <v>2853</v>
       </c>
       <c r="E60" s="8">
         <v>2019</v>
@@ -2662,17 +2907,17 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="7" t="s">
-        <v>56</v>
+      <c r="A61" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="B61" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C61" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="8">
         <v>2019</v>
@@ -2686,17 +2931,17 @@
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="7" t="s">
-        <v>57</v>
+      <c r="A62" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="3">
-        <v>18191</v>
+        <v>27059</v>
       </c>
       <c r="C62" s="3">
-        <v>18187</v>
+        <v>27052</v>
       </c>
       <c r="D62" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E62" s="8">
         <v>2019</v>
@@ -2710,14 +2955,14 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="7" t="s">
-        <v>58</v>
+      <c r="A63" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B63" s="3">
-        <v>6977</v>
+        <v>10393</v>
       </c>
       <c r="C63" s="3">
-        <v>6977</v>
+        <v>10392</v>
       </c>
       <c r="D63" s="2">
         <v>1</v>
@@ -2734,17 +2979,17 @@
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="7" t="s">
-        <v>59</v>
+      <c r="A64" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B64" s="3">
-        <v>411382</v>
+        <v>612373</v>
       </c>
       <c r="C64" s="3">
-        <v>23628</v>
+        <v>35132</v>
       </c>
       <c r="D64" s="3">
-        <v>387754</v>
+        <v>577241</v>
       </c>
       <c r="E64" s="8">
         <v>2019</v>
@@ -2758,14 +3003,14 @@
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="7" t="s">
-        <v>60</v>
+      <c r="A65" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="3">
-        <v>162451</v>
+        <v>241813</v>
       </c>
       <c r="C65" s="3">
-        <v>162450</v>
+        <v>241813</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
@@ -2782,17 +3027,17 @@
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="7" t="s">
-        <v>61</v>
+      <c r="A66" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="3">
-        <v>691794</v>
+        <v>1029195</v>
       </c>
       <c r="C66" s="3">
-        <v>631694</v>
+        <v>939692</v>
       </c>
       <c r="D66" s="3">
-        <v>60100</v>
+        <v>89502</v>
       </c>
       <c r="E66" s="8">
         <v>2019</v>
@@ -2806,17 +3051,17 @@
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="7" t="s">
-        <v>62</v>
+      <c r="A67" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B67" s="3">
-        <v>163501</v>
+        <v>243630</v>
       </c>
       <c r="C67" s="3">
-        <v>5697</v>
+        <v>8474</v>
       </c>
       <c r="D67" s="3">
-        <v>157804</v>
+        <v>235156</v>
       </c>
       <c r="E67" s="8">
         <v>2019</v>
@@ -2830,17 +3075,17 @@
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="7" t="s">
-        <v>63</v>
+      <c r="A68" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="B68" s="3">
-        <v>121135</v>
+        <v>180201</v>
       </c>
       <c r="C68" s="3">
-        <v>101870</v>
+        <v>151525</v>
       </c>
       <c r="D68" s="3">
-        <v>19265</v>
+        <v>28676</v>
       </c>
       <c r="E68" s="8">
         <v>2019</v>
@@ -2854,17 +3099,17 @@
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="7" t="s">
-        <v>64</v>
+      <c r="A69" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="B69" s="3">
-        <v>182290</v>
+        <v>271507</v>
       </c>
       <c r="C69" s="3">
-        <v>20661</v>
+        <v>30721</v>
       </c>
       <c r="D69" s="3">
-        <v>161629</v>
+        <v>240786</v>
       </c>
       <c r="E69" s="8">
         <v>2019</v>
@@ -2878,17 +3123,17 @@
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="7" t="s">
-        <v>65</v>
+      <c r="A70" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B70" s="3">
-        <v>39096</v>
+        <v>58187</v>
       </c>
       <c r="C70" s="3">
-        <v>31760</v>
+        <v>47262</v>
       </c>
       <c r="D70" s="3">
-        <v>7337</v>
+        <v>10924</v>
       </c>
       <c r="E70" s="8">
         <v>2019</v>
@@ -2902,17 +3147,17 @@
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="7" t="s">
-        <v>66</v>
+      <c r="A71" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="B71" s="3">
-        <v>348655</v>
+        <v>518955</v>
       </c>
       <c r="C71" s="3">
-        <v>244750</v>
+        <v>364145</v>
       </c>
       <c r="D71" s="3">
-        <v>103905</v>
+        <v>154810</v>
       </c>
       <c r="E71" s="8">
         <v>2019</v>
@@ -2926,17 +3171,17 @@
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="7" t="s">
-        <v>67</v>
+      <c r="A72" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B72" s="3">
-        <v>274396</v>
+        <v>408581</v>
       </c>
       <c r="C72" s="3">
-        <v>86488</v>
+        <v>128637</v>
       </c>
       <c r="D72" s="3">
-        <v>187908</v>
+        <v>279944</v>
       </c>
       <c r="E72" s="8">
         <v>2019</v>
@@ -2950,17 +3195,17 @@
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="7" t="s">
-        <v>68</v>
+      <c r="A73" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B73" s="3">
-        <v>4592</v>
+        <v>6821</v>
       </c>
       <c r="C73" s="3">
-        <v>4069</v>
+        <v>6041</v>
       </c>
       <c r="D73" s="2">
-        <v>524</v>
+        <v>780</v>
       </c>
       <c r="E73" s="8">
         <v>2019</v>
@@ -2974,17 +3219,17 @@
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="7" t="s">
-        <v>69</v>
+      <c r="A74" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="B74" s="3">
-        <v>149738</v>
+        <v>222360</v>
       </c>
       <c r="C74" s="3">
-        <v>124039</v>
+        <v>184147</v>
       </c>
       <c r="D74" s="3">
-        <v>25699</v>
+        <v>38213</v>
       </c>
       <c r="E74" s="8">
         <v>2019</v>
@@ -2998,17 +3243,17 @@
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="7" t="s">
-        <v>70</v>
+      <c r="A75" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B75" s="3">
-        <v>259097</v>
+        <v>385433</v>
       </c>
       <c r="C75" s="3">
-        <v>255129</v>
+        <v>379525</v>
       </c>
       <c r="D75" s="3">
-        <v>3968</v>
+        <v>5908</v>
       </c>
       <c r="E75" s="8">
         <v>2019</v>
@@ -3022,17 +3267,17 @@
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="7" t="s">
-        <v>71</v>
+      <c r="A76" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B76" s="3">
-        <v>165047</v>
+        <v>245432</v>
       </c>
       <c r="C76" s="3">
-        <v>164882</v>
+        <v>245187</v>
       </c>
       <c r="D76" s="2">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="E76" s="8">
         <v>2019</v>
@@ -3046,17 +3291,17 @@
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="7" t="s">
-        <v>72</v>
+      <c r="A77" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B77" s="3">
-        <v>378127</v>
+        <v>563255</v>
       </c>
       <c r="C77" s="3">
-        <v>119871</v>
+        <v>178379</v>
       </c>
       <c r="D77" s="3">
-        <v>258256</v>
+        <v>384876</v>
       </c>
       <c r="E77" s="8">
         <v>2019</v>
@@ -3070,17 +3315,17 @@
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" ht="21">
-      <c r="A78" s="7" t="s">
-        <v>73</v>
+      <c r="A78" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="B78" s="3">
-        <v>74202</v>
+        <v>110372</v>
       </c>
       <c r="C78" s="3">
-        <v>63408</v>
+        <v>94321</v>
       </c>
       <c r="D78" s="3">
-        <v>10794</v>
+        <v>16050</v>
       </c>
       <c r="E78" s="8">
         <v>2019</v>
@@ -3094,17 +3339,17 @@
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="7" t="s">
-        <v>74</v>
+      <c r="A79" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="B79" s="3">
-        <v>13270</v>
+        <v>19752</v>
       </c>
       <c r="C79" s="3">
-        <v>13132</v>
+        <v>19547</v>
       </c>
       <c r="D79" s="2">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="E79" s="8">
         <v>2019</v>
@@ -3118,17 +3363,17 @@
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="7" t="s">
-        <v>229</v>
+      <c r="A80" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="B80" s="3">
-        <v>49545</v>
+        <v>73712</v>
       </c>
       <c r="C80" s="3">
-        <v>29229</v>
+        <v>43451</v>
       </c>
       <c r="D80" s="3">
-        <v>20316</v>
+        <v>30261</v>
       </c>
       <c r="E80" s="8">
         <v>2019</v>
@@ -3142,17 +3387,17 @@
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="7" t="s">
-        <v>75</v>
+      <c r="A81" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="B81" s="3">
-        <v>128839</v>
+        <v>191633</v>
       </c>
       <c r="C81" s="3">
-        <v>75064</v>
+        <v>111494</v>
       </c>
       <c r="D81" s="3">
-        <v>53775</v>
+        <v>80139</v>
       </c>
       <c r="E81" s="8">
         <v>2019</v>
@@ -3166,17 +3411,17 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="7" t="s">
-        <v>76</v>
+      <c r="A82" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="B82" s="3">
-        <v>52810</v>
+        <v>78570</v>
       </c>
       <c r="C82" s="3">
-        <v>50469</v>
+        <v>75090</v>
       </c>
       <c r="D82" s="3">
-        <v>2342</v>
+        <v>3481</v>
       </c>
       <c r="E82" s="8">
         <v>2019</v>
@@ -3190,17 +3435,17 @@
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="7" t="s">
-        <v>77</v>
+      <c r="A83" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="B83" s="3">
-        <v>256241</v>
+        <v>381111</v>
       </c>
       <c r="C83" s="3">
-        <v>224345</v>
+        <v>333643</v>
       </c>
       <c r="D83" s="3">
-        <v>31895</v>
+        <v>47468</v>
       </c>
       <c r="E83" s="8">
         <v>2019</v>
@@ -3214,17 +3459,17 @@
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="7" t="s">
-        <v>78</v>
+      <c r="A84" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B84" s="3">
-        <v>93246</v>
+        <v>138734</v>
       </c>
       <c r="C84" s="3">
-        <v>75861</v>
+        <v>112835</v>
       </c>
       <c r="D84" s="3">
-        <v>17385</v>
+        <v>25899</v>
       </c>
       <c r="E84" s="8">
         <v>2019</v>
@@ -3238,17 +3483,17 @@
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="7" t="s">
-        <v>79</v>
+      <c r="A85" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="B85" s="3">
-        <v>30741</v>
+        <v>45764</v>
       </c>
       <c r="C85" s="3">
-        <v>19695</v>
+        <v>29302</v>
       </c>
       <c r="D85" s="3">
-        <v>11047</v>
+        <v>16462</v>
       </c>
       <c r="E85" s="8">
         <v>2019</v>
@@ -3262,17 +3507,17 @@
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="7" t="s">
-        <v>80</v>
+      <c r="A86" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="B86" s="3">
-        <v>46203</v>
+        <v>68697</v>
       </c>
       <c r="C86" s="3">
-        <v>19576</v>
+        <v>29062</v>
       </c>
       <c r="D86" s="3">
-        <v>26626</v>
+        <v>39635</v>
       </c>
       <c r="E86" s="8">
         <v>2019</v>
@@ -3286,17 +3531,17 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" ht="21">
-      <c r="A87" s="7" t="s">
-        <v>81</v>
+      <c r="A87" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="B87" s="3">
-        <v>1060084</v>
+        <v>1577431</v>
       </c>
       <c r="C87" s="3">
-        <v>919268</v>
+        <v>1367612</v>
       </c>
       <c r="D87" s="3">
-        <v>140817</v>
+        <v>209818</v>
       </c>
       <c r="E87" s="8">
         <v>2019</v>
@@ -3310,17 +3555,17 @@
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="7" t="s">
-        <v>82</v>
+      <c r="A88" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="B88" s="3">
-        <v>9682</v>
+        <v>14401</v>
       </c>
       <c r="C88" s="3">
-        <v>9673</v>
+        <v>14387</v>
       </c>
       <c r="D88" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E88" s="8">
         <v>2019</v>
@@ -3334,17 +3579,17 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="7" t="s">
-        <v>83</v>
+      <c r="A89" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="B89" s="3">
-        <v>15941</v>
+        <v>23738</v>
       </c>
       <c r="C89" s="3">
-        <v>12578</v>
+        <v>18725</v>
       </c>
       <c r="D89" s="3">
-        <v>3364</v>
+        <v>5013</v>
       </c>
       <c r="E89" s="8">
         <v>2019</v>
@@ -3358,14 +3603,14 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="7" t="s">
-        <v>84</v>
+      <c r="A90" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="B90" s="2">
-        <v>237</v>
+        <v>352</v>
       </c>
       <c r="C90" s="2">
-        <v>237</v>
+        <v>352</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
@@ -3382,17 +3627,17 @@
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="7" t="s">
-        <v>85</v>
+      <c r="A91" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="B91" s="3">
-        <v>180821</v>
+        <v>268876</v>
       </c>
       <c r="C91" s="3">
-        <v>150311</v>
+        <v>223517</v>
       </c>
       <c r="D91" s="3">
-        <v>30510</v>
+        <v>45359</v>
       </c>
       <c r="E91" s="8">
         <v>2019</v>
@@ -3406,14 +3651,14 @@
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" ht="21">
-      <c r="A92" s="7" t="s">
-        <v>86</v>
+      <c r="A92" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="B92" s="3">
-        <v>4399</v>
+        <v>6539</v>
       </c>
       <c r="C92" s="3">
-        <v>4399</v>
+        <v>6539</v>
       </c>
       <c r="D92" s="2">
         <v>0</v>
@@ -3430,17 +3675,17 @@
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="7" t="s">
-        <v>87</v>
+      <c r="A93" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="B93" s="3">
-        <v>29515</v>
+        <v>43868</v>
       </c>
       <c r="C93" s="3">
-        <v>22684</v>
+        <v>33696</v>
       </c>
       <c r="D93" s="3">
-        <v>6831</v>
+        <v>10173</v>
       </c>
       <c r="E93" s="8">
         <v>2019</v>
@@ -3454,17 +3699,17 @@
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="7" t="s">
-        <v>88</v>
+      <c r="A94" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="B94" s="3">
-        <v>47392</v>
+        <v>70516</v>
       </c>
       <c r="C94" s="3">
-        <v>46406</v>
-      </c>
-      <c r="D94" s="2">
-        <v>986</v>
+        <v>69049</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1467</v>
       </c>
       <c r="E94" s="8">
         <v>2019</v>
@@ -3478,17 +3723,17 @@
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="7" t="s">
-        <v>230</v>
+      <c r="A95" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="B95" s="3">
-        <v>2877444</v>
+        <v>4283314</v>
       </c>
       <c r="C95" s="3">
-        <v>943357</v>
+        <v>1403057</v>
       </c>
       <c r="D95" s="3">
-        <v>1934087</v>
+        <v>2880257</v>
       </c>
       <c r="E95" s="8">
         <v>2019</v>
@@ -3502,17 +3747,17 @@
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="7" t="s">
-        <v>89</v>
+      <c r="A96" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="B96" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C96" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" s="8">
         <v>2019</v>
@@ -3526,17 +3771,17 @@
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" ht="21">
-      <c r="A97" s="7" t="s">
-        <v>90</v>
+      <c r="A97" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="B97" s="3">
-        <v>169235</v>
+        <v>251747</v>
       </c>
       <c r="C97" s="3">
-        <v>118263</v>
+        <v>175879</v>
       </c>
       <c r="D97" s="3">
-        <v>50972</v>
+        <v>75867</v>
       </c>
       <c r="E97" s="8">
         <v>2019</v>
@@ -3550,17 +3795,17 @@
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="7" t="s">
-        <v>91</v>
+      <c r="A98" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="B98" s="3">
-        <v>187035</v>
+        <v>278394</v>
       </c>
       <c r="C98" s="3">
-        <v>177979</v>
+        <v>264903</v>
       </c>
       <c r="D98" s="3">
-        <v>9055</v>
+        <v>13491</v>
       </c>
       <c r="E98" s="8">
         <v>2019</v>
@@ -3574,17 +3819,17 @@
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" ht="21">
-      <c r="A99" s="7" t="s">
-        <v>92</v>
+      <c r="A99" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B99" s="3">
-        <v>148185</v>
+        <v>220502</v>
       </c>
       <c r="C99" s="3">
-        <v>116577</v>
+        <v>173443</v>
       </c>
       <c r="D99" s="3">
-        <v>31607</v>
+        <v>47059</v>
       </c>
       <c r="E99" s="8">
         <v>2019</v>
@@ -3598,17 +3843,17 @@
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" ht="21">
-      <c r="A100" s="7" t="s">
-        <v>93</v>
+      <c r="A100" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="B100" s="3">
-        <v>86966</v>
+        <v>129258</v>
       </c>
       <c r="C100" s="3">
-        <v>76891</v>
+        <v>114333</v>
       </c>
       <c r="D100" s="3">
-        <v>10076</v>
+        <v>14925</v>
       </c>
       <c r="E100" s="8">
         <v>2019</v>
@@ -3622,17 +3867,17 @@
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="7" t="s">
-        <v>94</v>
+      <c r="A101" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="B101" s="3">
-        <v>50378</v>
+        <v>74758</v>
       </c>
       <c r="C101" s="3">
-        <v>46223</v>
+        <v>68569</v>
       </c>
       <c r="D101" s="3">
-        <v>4155</v>
+        <v>6189</v>
       </c>
       <c r="E101" s="8">
         <v>2019</v>
@@ -3646,17 +3891,17 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" ht="21">
-      <c r="A102" s="7" t="s">
-        <v>95</v>
+      <c r="A102" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="B102" s="3">
-        <v>20830</v>
+        <v>31004</v>
       </c>
       <c r="C102" s="3">
-        <v>14382</v>
+        <v>21396</v>
       </c>
       <c r="D102" s="3">
-        <v>6447</v>
+        <v>9608</v>
       </c>
       <c r="E102" s="8">
         <v>2019</v>
@@ -3670,17 +3915,17 @@
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" ht="21">
-      <c r="A103" s="7" t="s">
-        <v>96</v>
+      <c r="A103" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="B103" s="3">
-        <v>301732</v>
+        <v>449009</v>
       </c>
       <c r="C103" s="3">
-        <v>136140</v>
+        <v>202369</v>
       </c>
       <c r="D103" s="3">
-        <v>165592</v>
+        <v>246640</v>
       </c>
       <c r="E103" s="8">
         <v>2019</v>
@@ -3694,17 +3939,17 @@
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" ht="21">
-      <c r="A104" s="7" t="s">
-        <v>231</v>
+      <c r="A104" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="B104" s="3">
-        <v>264625</v>
+        <v>394069</v>
       </c>
       <c r="C104" s="3">
-        <v>59688</v>
+        <v>88702</v>
       </c>
       <c r="D104" s="3">
-        <v>204937</v>
+        <v>305367</v>
       </c>
       <c r="E104" s="8">
         <v>2019</v>
@@ -3718,17 +3963,17 @@
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" ht="21">
-      <c r="A105" s="7" t="s">
-        <v>97</v>
+      <c r="A105" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="B105" s="3">
-        <v>149749</v>
+        <v>223023</v>
       </c>
       <c r="C105" s="3">
-        <v>17407</v>
+        <v>25888</v>
       </c>
       <c r="D105" s="3">
-        <v>132343</v>
+        <v>197135</v>
       </c>
       <c r="E105" s="8">
         <v>2019</v>
@@ -3742,17 +3987,17 @@
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" ht="21">
-      <c r="A106" s="7" t="s">
-        <v>232</v>
+      <c r="A106" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="B106" s="3">
-        <v>12028</v>
+        <v>17915</v>
       </c>
       <c r="C106" s="3">
-        <v>6115</v>
+        <v>9103</v>
       </c>
       <c r="D106" s="3">
-        <v>5914</v>
+        <v>8812</v>
       </c>
       <c r="E106" s="8">
         <v>2019</v>
@@ -3766,14 +4011,14 @@
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" ht="21">
-      <c r="A107" s="7" t="s">
-        <v>98</v>
+      <c r="A107" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="B107" s="2">
-        <v>235</v>
+        <v>349</v>
       </c>
       <c r="C107" s="2">
-        <v>235</v>
+        <v>349</v>
       </c>
       <c r="D107" s="2">
         <v>0</v>
@@ -3790,17 +4035,17 @@
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" ht="21">
-      <c r="A108" s="7" t="s">
-        <v>99</v>
+      <c r="A108" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="B108" s="3">
-        <v>2850</v>
+        <v>4242</v>
       </c>
       <c r="C108" s="3">
-        <v>2691</v>
+        <v>4005</v>
       </c>
       <c r="D108" s="2">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="E108" s="8">
         <v>2019</v>
@@ -3814,17 +4059,17 @@
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" ht="21">
-      <c r="A109" s="7" t="s">
-        <v>100</v>
+      <c r="A109" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="B109" s="3">
-        <v>8216</v>
+        <v>12238</v>
       </c>
       <c r="C109" s="3">
-        <v>1363</v>
+        <v>2026</v>
       </c>
       <c r="D109" s="3">
-        <v>6853</v>
+        <v>10213</v>
       </c>
       <c r="E109" s="8">
         <v>2019</v>
@@ -3838,14 +4083,14 @@
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" ht="21">
-      <c r="A110" s="7" t="s">
-        <v>101</v>
+      <c r="A110" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="B110" s="3">
-        <v>4276</v>
+        <v>6362</v>
       </c>
       <c r="C110" s="3">
-        <v>4274</v>
+        <v>6359</v>
       </c>
       <c r="D110" s="2">
         <v>2</v>
@@ -3862,17 +4107,17 @@
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="7" t="s">
-        <v>102</v>
+      <c r="A111" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="B111" s="3">
-        <v>51463</v>
+        <v>76677</v>
       </c>
       <c r="C111" s="3">
-        <v>5844</v>
+        <v>8692</v>
       </c>
       <c r="D111" s="3">
-        <v>45618</v>
+        <v>67985</v>
       </c>
       <c r="E111" s="8">
         <v>2019</v>
@@ -3886,17 +4131,17 @@
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" ht="21">
-      <c r="A112" s="7" t="s">
-        <v>103</v>
+      <c r="A112" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="B112" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E112" s="8">
         <v>2019</v>
@@ -3910,17 +4155,17 @@
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" ht="21">
-      <c r="A113" s="7" t="s">
-        <v>104</v>
+      <c r="A113" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="B113" s="3">
-        <v>1393212</v>
+        <v>2070359</v>
       </c>
       <c r="C113" s="3">
-        <v>986328</v>
+        <v>1466281</v>
       </c>
       <c r="D113" s="3">
-        <v>406885</v>
+        <v>604078</v>
       </c>
       <c r="E113" s="8">
         <v>2019</v>
@@ -3934,17 +4179,17 @@
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="7" t="s">
-        <v>105</v>
+      <c r="A114" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="B114" s="3">
-        <v>606117</v>
+        <v>900588</v>
       </c>
       <c r="C114" s="3">
-        <v>377613</v>
+        <v>561431</v>
       </c>
       <c r="D114" s="3">
-        <v>228504</v>
+        <v>339158</v>
       </c>
       <c r="E114" s="8">
         <v>2019</v>
@@ -3958,17 +4203,17 @@
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="7" t="s">
-        <v>106</v>
+      <c r="A115" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B115" s="3">
-        <v>4464250</v>
+        <v>6639054</v>
       </c>
       <c r="C115" s="3">
-        <v>3100401</v>
+        <v>4611104</v>
       </c>
       <c r="D115" s="3">
-        <v>1363849</v>
+        <v>2027950</v>
       </c>
       <c r="E115" s="8">
         <v>2019</v>
@@ -3982,17 +4227,17 @@
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" ht="21">
-      <c r="A116" s="7" t="s">
-        <v>107</v>
+      <c r="A116" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="B116" s="3">
-        <v>10495048</v>
+        <v>15581959</v>
       </c>
       <c r="C116" s="3">
-        <v>4344540</v>
+        <v>6458271</v>
       </c>
       <c r="D116" s="3">
-        <v>6150508</v>
+        <v>9123688</v>
       </c>
       <c r="E116" s="8">
         <v>2019</v>
@@ -4006,17 +4251,17 @@
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="7" t="s">
-        <v>108</v>
+      <c r="A117" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="B117" s="3">
-        <v>3366356</v>
+        <v>5001185</v>
       </c>
       <c r="C117" s="3">
-        <v>1701859</v>
+        <v>2530124</v>
       </c>
       <c r="D117" s="3">
-        <v>1664497</v>
+        <v>2471061</v>
       </c>
       <c r="E117" s="8">
         <v>2019</v>
@@ -4030,17 +4275,17 @@
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" ht="21">
-      <c r="A118" s="7" t="s">
-        <v>109</v>
+      <c r="A118" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="B118" s="3">
-        <v>1064411</v>
+        <v>1583600</v>
       </c>
       <c r="C118" s="3">
-        <v>210747</v>
+        <v>313625</v>
       </c>
       <c r="D118" s="3">
-        <v>853664</v>
+        <v>1269975</v>
       </c>
       <c r="E118" s="8">
         <v>2019</v>
@@ -4054,17 +4299,17 @@
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" ht="21">
-      <c r="A119" s="7" t="s">
-        <v>110</v>
+      <c r="A119" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B119" s="3">
-        <v>3083478</v>
+        <v>4577027</v>
       </c>
       <c r="C119" s="3">
-        <v>1804303</v>
+        <v>2680911</v>
       </c>
       <c r="D119" s="3">
-        <v>1279175</v>
+        <v>1896116</v>
       </c>
       <c r="E119" s="8">
         <v>2019</v>
@@ -4078,17 +4323,17 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" ht="21">
-      <c r="A120" s="7" t="s">
-        <v>111</v>
+      <c r="A120" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="B120" s="3">
-        <v>144829</v>
+        <v>215639</v>
       </c>
       <c r="C120" s="3">
-        <v>128204</v>
+        <v>190948</v>
       </c>
       <c r="D120" s="3">
-        <v>16625</v>
+        <v>24690</v>
       </c>
       <c r="E120" s="8">
         <v>2019</v>
@@ -4102,17 +4347,17 @@
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" ht="21">
-      <c r="A121" s="7" t="s">
-        <v>112</v>
+      <c r="A121" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="B121" s="3">
-        <v>4731637</v>
+        <v>7034323</v>
       </c>
       <c r="C121" s="3">
-        <v>4003856</v>
+        <v>5954865</v>
       </c>
       <c r="D121" s="3">
-        <v>727781</v>
+        <v>1079458</v>
       </c>
       <c r="E121" s="8">
         <v>2019</v>
@@ -4126,17 +4371,17 @@
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" ht="21">
-      <c r="A122" s="7" t="s">
-        <v>113</v>
+      <c r="A122" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="B122" s="3">
-        <v>440934</v>
+        <v>655411</v>
       </c>
       <c r="C122" s="3">
-        <v>393598</v>
+        <v>585233</v>
       </c>
       <c r="D122" s="3">
-        <v>47336</v>
+        <v>70178</v>
       </c>
       <c r="E122" s="8">
         <v>2019</v>
@@ -4150,17 +4395,17 @@
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" ht="21">
-      <c r="A123" s="7" t="s">
-        <v>114</v>
+      <c r="A123" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="B123" s="3">
-        <v>364435</v>
+        <v>541202</v>
       </c>
       <c r="C123" s="3">
-        <v>237969</v>
+        <v>353787</v>
       </c>
       <c r="D123" s="3">
-        <v>126465</v>
+        <v>187415</v>
       </c>
       <c r="E123" s="8">
         <v>2019</v>
@@ -4174,17 +4419,17 @@
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" ht="21">
-      <c r="A124" s="7" t="s">
-        <v>115</v>
+      <c r="A124" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B124" s="3">
-        <v>1998024</v>
+        <v>2969524</v>
       </c>
       <c r="C124" s="3">
-        <v>1467551</v>
+        <v>2181854</v>
       </c>
       <c r="D124" s="3">
-        <v>530473</v>
+        <v>787670</v>
       </c>
       <c r="E124" s="8">
         <v>2019</v>
@@ -4198,17 +4443,17 @@
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" ht="21">
-      <c r="A125" s="7" t="s">
-        <v>116</v>
+      <c r="A125" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B125" s="3">
-        <v>41680</v>
+        <v>61979</v>
       </c>
       <c r="C125" s="3">
-        <v>38251</v>
+        <v>56878</v>
       </c>
       <c r="D125" s="3">
-        <v>3429</v>
+        <v>5102</v>
       </c>
       <c r="E125" s="8">
         <v>2019</v>
@@ -4222,17 +4467,17 @@
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" ht="21">
-      <c r="A126" s="7" t="s">
-        <v>233</v>
+      <c r="A126" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="B126" s="2">
-        <v>242</v>
+        <v>360</v>
       </c>
       <c r="C126" s="2">
-        <v>238</v>
+        <v>355</v>
       </c>
       <c r="D126" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E126" s="8">
         <v>2019</v>
@@ -4246,17 +4491,17 @@
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" ht="21">
-      <c r="A127" s="7" t="s">
-        <v>117</v>
+      <c r="A127" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="B127" s="3">
-        <v>605856</v>
+        <v>898477</v>
       </c>
       <c r="C127" s="3">
-        <v>165718</v>
+        <v>246099</v>
       </c>
       <c r="D127" s="3">
-        <v>440139</v>
+        <v>652379</v>
       </c>
       <c r="E127" s="8">
         <v>2019</v>
@@ -4270,17 +4515,17 @@
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" ht="21">
-      <c r="A128" s="7" t="s">
-        <v>118</v>
+      <c r="A128" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="B128" s="3">
-        <v>153124</v>
+        <v>227649</v>
       </c>
       <c r="C128" s="3">
-        <v>81108</v>
+        <v>120524</v>
       </c>
       <c r="D128" s="3">
-        <v>72016</v>
+        <v>107126</v>
       </c>
       <c r="E128" s="8">
         <v>2019</v>
@@ -4294,17 +4539,17 @@
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" ht="21">
-      <c r="A129" s="7" t="s">
-        <v>119</v>
+      <c r="A129" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="B129" s="3">
-        <v>438618</v>
+        <v>651704</v>
       </c>
       <c r="C129" s="3">
-        <v>175962</v>
+        <v>261557</v>
       </c>
       <c r="D129" s="3">
-        <v>262656</v>
+        <v>390147</v>
       </c>
       <c r="E129" s="8">
         <v>2019</v>
@@ -4318,14 +4563,14 @@
       <c r="J129" s="2"/>
     </row>
     <row r="130" spans="1:10" ht="21">
-      <c r="A130" s="7" t="s">
-        <v>120</v>
+      <c r="A130" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="B130" s="2">
-        <v>272</v>
+        <v>405</v>
       </c>
       <c r="C130" s="2">
-        <v>272</v>
+        <v>405</v>
       </c>
       <c r="D130" s="2">
         <v>0</v>
@@ -4342,17 +4587,17 @@
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="1:10" ht="21">
-      <c r="A131" s="7" t="s">
-        <v>121</v>
+      <c r="A131" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="B131" s="3">
-        <v>546119</v>
+        <v>810741</v>
       </c>
       <c r="C131" s="3">
-        <v>324665</v>
+        <v>482876</v>
       </c>
       <c r="D131" s="3">
-        <v>221454</v>
+        <v>327865</v>
       </c>
       <c r="E131" s="8">
         <v>2019</v>
@@ -4366,17 +4611,17 @@
       <c r="J131" s="2"/>
     </row>
     <row r="132" spans="1:10" ht="21">
-      <c r="A132" s="7" t="s">
-        <v>122</v>
+      <c r="A132" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="B132" s="3">
-        <v>11849</v>
+        <v>17637</v>
       </c>
       <c r="C132" s="3">
-        <v>5843</v>
+        <v>8689</v>
       </c>
       <c r="D132" s="3">
-        <v>6006</v>
+        <v>8948</v>
       </c>
       <c r="E132" s="8">
         <v>2019</v>
@@ -4390,17 +4635,17 @@
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:10" ht="21">
-      <c r="A133" s="7" t="s">
-        <v>123</v>
+      <c r="A133" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="B133" s="3">
-        <v>9727</v>
+        <v>14469</v>
       </c>
       <c r="C133" s="3">
-        <v>2512</v>
+        <v>3738</v>
       </c>
       <c r="D133" s="3">
-        <v>7215</v>
+        <v>10731</v>
       </c>
       <c r="E133" s="8">
         <v>2019</v>
@@ -4414,17 +4659,17 @@
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" ht="21">
-      <c r="A134" s="7" t="s">
-        <v>124</v>
+      <c r="A134" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="B134" s="3">
-        <v>60972</v>
+        <v>90522</v>
       </c>
       <c r="C134" s="3">
-        <v>42308</v>
+        <v>62749</v>
       </c>
       <c r="D134" s="3">
-        <v>18663</v>
+        <v>27773</v>
       </c>
       <c r="E134" s="8">
         <v>2019</v>
@@ -4438,17 +4683,17 @@
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="1:10" ht="21">
-      <c r="A135" s="7" t="s">
-        <v>125</v>
+      <c r="A135" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="B135" s="3">
-        <v>1669</v>
+        <v>2478</v>
       </c>
       <c r="C135" s="3">
-        <v>1255</v>
+        <v>1867</v>
       </c>
       <c r="D135" s="2">
-        <v>414</v>
+        <v>611</v>
       </c>
       <c r="E135" s="8">
         <v>2019</v>
@@ -4462,17 +4707,17 @@
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" ht="21">
-      <c r="A136" s="7" t="s">
-        <v>126</v>
+      <c r="A136" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="B136" s="3">
-        <v>333932</v>
+        <v>496990</v>
       </c>
       <c r="C136" s="3">
-        <v>148696</v>
+        <v>221174</v>
       </c>
       <c r="D136" s="3">
-        <v>185236</v>
+        <v>275816</v>
       </c>
       <c r="E136" s="8">
         <v>2019</v>
@@ -4486,17 +4731,17 @@
       <c r="J136" s="2"/>
     </row>
     <row r="137" spans="1:10" ht="21">
-      <c r="A137" s="7" t="s">
-        <v>127</v>
+      <c r="A137" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="B137" s="3">
-        <v>1351490</v>
+        <v>2008891</v>
       </c>
       <c r="C137" s="3">
-        <v>1131317</v>
+        <v>1682363</v>
       </c>
       <c r="D137" s="3">
-        <v>220173</v>
+        <v>326529</v>
       </c>
       <c r="E137" s="8">
         <v>2019</v>
@@ -4510,17 +4755,17 @@
       <c r="J137" s="2"/>
     </row>
     <row r="138" spans="1:10" ht="21">
-      <c r="A138" s="7" t="s">
-        <v>128</v>
+      <c r="A138" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="B138" s="3">
-        <v>353278</v>
+        <v>524700</v>
       </c>
       <c r="C138" s="3">
-        <v>238699</v>
+        <v>354861</v>
       </c>
       <c r="D138" s="3">
-        <v>114579</v>
+        <v>169839</v>
       </c>
       <c r="E138" s="8">
         <v>2019</v>
@@ -4534,17 +4779,17 @@
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:10" ht="21">
-      <c r="A139" s="7" t="s">
-        <v>129</v>
+      <c r="A139" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="B139" s="2">
-        <v>564</v>
+        <v>836</v>
       </c>
       <c r="C139" s="2">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="D139" s="2">
-        <v>379</v>
+        <v>560</v>
       </c>
       <c r="E139" s="8">
         <v>2019</v>
@@ -4558,17 +4803,17 @@
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:10" ht="21">
-      <c r="A140" s="7" t="s">
-        <v>130</v>
+      <c r="A140" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="B140" s="3">
-        <v>1049238</v>
+        <v>1560082</v>
       </c>
       <c r="C140" s="3">
-        <v>486415</v>
+        <v>723571</v>
       </c>
       <c r="D140" s="3">
-        <v>562823</v>
+        <v>836510</v>
       </c>
       <c r="E140" s="8">
         <v>2019</v>
@@ -4582,17 +4827,17 @@
       <c r="J140" s="2"/>
     </row>
     <row r="141" spans="1:10" ht="21">
-      <c r="A141" s="7" t="s">
-        <v>131</v>
+      <c r="A141" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="B141" s="3">
-        <v>2566050</v>
+        <v>3822571</v>
       </c>
       <c r="C141" s="3">
-        <v>248029</v>
+        <v>369052</v>
       </c>
       <c r="D141" s="3">
-        <v>2318021</v>
+        <v>3453519</v>
       </c>
       <c r="E141" s="8">
         <v>2019</v>
@@ -4606,17 +4851,17 @@
       <c r="J141" s="2"/>
     </row>
     <row r="142" spans="1:10" ht="21">
-      <c r="A142" s="7" t="s">
-        <v>132</v>
+      <c r="A142" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="B142" s="3">
-        <v>62554</v>
+        <v>92946</v>
       </c>
       <c r="C142" s="3">
-        <v>49813</v>
+        <v>74071</v>
       </c>
       <c r="D142" s="3">
-        <v>12742</v>
+        <v>18875</v>
       </c>
       <c r="E142" s="8">
         <v>2019</v>
@@ -4630,17 +4875,17 @@
       <c r="J142" s="2"/>
     </row>
     <row r="143" spans="1:10" ht="21">
-      <c r="A143" s="7" t="s">
-        <v>133</v>
+      <c r="A143" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="B143" s="3">
-        <v>63294</v>
+        <v>94044</v>
       </c>
       <c r="C143" s="3">
-        <v>52463</v>
+        <v>78023</v>
       </c>
       <c r="D143" s="3">
-        <v>10831</v>
+        <v>16021</v>
       </c>
       <c r="E143" s="8">
         <v>2019</v>
@@ -4654,17 +4899,17 @@
       <c r="J143" s="2"/>
     </row>
     <row r="144" spans="1:10" ht="21">
-      <c r="A144" s="7" t="s">
-        <v>234</v>
+      <c r="A144" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="B144" s="3">
-        <v>112212</v>
+        <v>166826</v>
       </c>
       <c r="C144" s="3">
-        <v>91039</v>
+        <v>135373</v>
       </c>
       <c r="D144" s="3">
-        <v>21172</v>
+        <v>31453</v>
       </c>
       <c r="E144" s="8">
         <v>2019</v>
@@ -4678,17 +4923,17 @@
       <c r="J144" s="2"/>
     </row>
     <row r="145" spans="1:10" ht="21">
-      <c r="A145" s="7" t="s">
-        <v>134</v>
+      <c r="A145" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="B145" s="3">
-        <v>80644</v>
+        <v>119936</v>
       </c>
       <c r="C145" s="3">
-        <v>77990</v>
+        <v>115985</v>
       </c>
       <c r="D145" s="3">
-        <v>2654</v>
+        <v>3951</v>
       </c>
       <c r="E145" s="8">
         <v>2019</v>
@@ -4702,17 +4947,17 @@
       <c r="J145" s="2"/>
     </row>
     <row r="146" spans="1:10" ht="21">
-      <c r="A146" s="7" t="s">
-        <v>135</v>
+      <c r="A146" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="B146" s="3">
-        <v>56150</v>
+        <v>83524</v>
       </c>
       <c r="C146" s="3">
-        <v>11537</v>
+        <v>17157</v>
       </c>
       <c r="D146" s="3">
-        <v>44613</v>
+        <v>66367</v>
       </c>
       <c r="E146" s="8">
         <v>2019</v>
@@ -4726,17 +4971,17 @@
       <c r="J146" s="2"/>
     </row>
     <row r="147" spans="1:10" ht="21">
-      <c r="A147" s="7" t="s">
-        <v>136</v>
+      <c r="A147" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="B147" s="3">
-        <v>126695</v>
+        <v>188729</v>
       </c>
       <c r="C147" s="3">
-        <v>28956</v>
+        <v>43074</v>
       </c>
       <c r="D147" s="3">
-        <v>97738</v>
+        <v>145656</v>
       </c>
       <c r="E147" s="8">
         <v>2019</v>
@@ -4750,17 +4995,17 @@
       <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" ht="21">
-      <c r="A148" s="7" t="s">
-        <v>137</v>
+      <c r="A148" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="B148" s="3">
-        <v>173319</v>
+        <v>257726</v>
       </c>
       <c r="C148" s="3">
-        <v>103717</v>
+        <v>154136</v>
       </c>
       <c r="D148" s="3">
-        <v>69602</v>
+        <v>103590</v>
       </c>
       <c r="E148" s="8">
         <v>2019</v>
@@ -4774,17 +5019,17 @@
       <c r="J148" s="2"/>
     </row>
     <row r="149" spans="1:10" ht="21">
-      <c r="A149" s="7" t="s">
-        <v>138</v>
+      <c r="A149" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="B149" s="3">
-        <v>8287</v>
+        <v>12322</v>
       </c>
       <c r="C149" s="3">
-        <v>6439</v>
+        <v>9577</v>
       </c>
       <c r="D149" s="3">
-        <v>1848</v>
+        <v>2745</v>
       </c>
       <c r="E149" s="8">
         <v>2019</v>
@@ -4798,17 +5043,17 @@
       <c r="J149" s="2"/>
     </row>
     <row r="150" spans="1:10" ht="21">
-      <c r="A150" s="7" t="s">
-        <v>139</v>
+      <c r="A150" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="B150" s="3">
-        <v>5984395</v>
+        <v>8907710</v>
       </c>
       <c r="C150" s="3">
-        <v>2498288</v>
+        <v>3716660</v>
       </c>
       <c r="D150" s="3">
-        <v>3486108</v>
+        <v>5191049</v>
       </c>
       <c r="E150" s="8">
         <v>2019</v>
@@ -4822,17 +5067,17 @@
       <c r="J150" s="2"/>
     </row>
     <row r="151" spans="1:10" ht="21">
-      <c r="A151" s="7" t="s">
-        <v>235</v>
+      <c r="A151" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="B151" s="3">
-        <v>615316</v>
+        <v>915592</v>
       </c>
       <c r="C151" s="3">
-        <v>354997</v>
+        <v>528076</v>
       </c>
       <c r="D151" s="3">
-        <v>260320</v>
+        <v>387516</v>
       </c>
       <c r="E151" s="8">
         <v>2019</v>
@@ -4846,17 +5091,17 @@
       <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" ht="21">
-      <c r="A152" s="7" t="s">
-        <v>236</v>
+      <c r="A152" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="B152" s="3">
-        <v>236728</v>
+        <v>351657</v>
       </c>
       <c r="C152" s="3">
-        <v>203927</v>
+        <v>303073</v>
       </c>
       <c r="D152" s="3">
-        <v>32801</v>
+        <v>48584</v>
       </c>
       <c r="E152" s="8">
         <v>2019</v>
@@ -4870,17 +5115,17 @@
       <c r="J152" s="2"/>
     </row>
     <row r="153" spans="1:10" ht="21">
-      <c r="A153" s="7" t="s">
-        <v>140</v>
+      <c r="A153" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="B153" s="3">
-        <v>86152</v>
+        <v>128050</v>
       </c>
       <c r="C153" s="3">
-        <v>77206</v>
+        <v>114797</v>
       </c>
       <c r="D153" s="3">
-        <v>8946</v>
+        <v>13253</v>
       </c>
       <c r="E153" s="8">
         <v>2019</v>
@@ -4894,17 +5139,17 @@
       <c r="J153" s="2"/>
     </row>
     <row r="154" spans="1:10" ht="21">
-      <c r="A154" s="7" t="s">
-        <v>141</v>
+      <c r="A154" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="B154" s="3">
-        <v>904896</v>
+        <v>1344351</v>
       </c>
       <c r="C154" s="3">
-        <v>658300</v>
+        <v>979029</v>
       </c>
       <c r="D154" s="3">
-        <v>246596</v>
+        <v>365322</v>
       </c>
       <c r="E154" s="8">
         <v>2019</v>
@@ -4918,17 +5163,17 @@
       <c r="J154" s="2"/>
     </row>
     <row r="155" spans="1:10" ht="21">
-      <c r="A155" s="7" t="s">
-        <v>142</v>
+      <c r="A155" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="B155" s="3">
-        <v>514349</v>
+        <v>764683</v>
       </c>
       <c r="C155" s="3">
-        <v>139268</v>
+        <v>206917</v>
       </c>
       <c r="D155" s="3">
-        <v>375081</v>
+        <v>557765</v>
       </c>
       <c r="E155" s="8">
         <v>2019</v>
@@ -4942,17 +5187,17 @@
       <c r="J155" s="2"/>
     </row>
     <row r="156" spans="1:10" ht="21">
-      <c r="A156" s="7" t="s">
-        <v>237</v>
+      <c r="A156" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="B156" s="5">
-        <v>13138</v>
+        <v>19507</v>
       </c>
       <c r="C156" s="5">
-        <v>7325</v>
+        <v>10892</v>
       </c>
       <c r="D156" s="5">
-        <v>5812</v>
+        <v>8615</v>
       </c>
       <c r="E156" s="8">
         <v>2019</v>
@@ -4966,17 +5211,17 @@
       <c r="J156" s="4"/>
     </row>
     <row r="157" spans="1:10" ht="21">
-      <c r="A157" s="7" t="s">
-        <v>143</v>
+      <c r="A157" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="B157" s="3">
-        <v>12510</v>
+        <v>18556</v>
       </c>
       <c r="C157" s="3">
-        <v>8366</v>
+        <v>12424</v>
       </c>
       <c r="D157" s="3">
-        <v>4145</v>
+        <v>6132</v>
       </c>
       <c r="E157" s="8">
         <v>2019</v>
@@ -4990,17 +5235,17 @@
       <c r="J157" s="2"/>
     </row>
     <row r="158" spans="1:10" ht="21">
-      <c r="A158" s="7" t="s">
-        <v>144</v>
+      <c r="A158" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="B158" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E158" s="8">
         <v>2019</v>
@@ -5014,17 +5259,17 @@
       <c r="J158" s="2"/>
     </row>
     <row r="159" spans="1:10" ht="21">
-      <c r="A159" s="7" t="s">
-        <v>145</v>
+      <c r="A159" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="B159" s="3">
-        <v>9317</v>
+        <v>13885</v>
       </c>
       <c r="C159" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D159" s="3">
-        <v>9251</v>
+        <v>13787</v>
       </c>
       <c r="E159" s="8">
         <v>2019</v>
@@ -5038,17 +5283,17 @@
       <c r="J159" s="2"/>
     </row>
     <row r="160" spans="1:10" ht="21">
-      <c r="A160" s="7" t="s">
-        <v>146</v>
+      <c r="A160" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="B160" s="3">
-        <v>68188</v>
+        <v>101308</v>
       </c>
       <c r="C160" s="3">
-        <v>48276</v>
+        <v>71763</v>
       </c>
       <c r="D160" s="3">
-        <v>19912</v>
+        <v>29544</v>
       </c>
       <c r="E160" s="8">
         <v>2019</v>
@@ -5062,17 +5307,17 @@
       <c r="J160" s="2"/>
     </row>
     <row r="161" spans="1:10" ht="21">
-      <c r="A161" s="7" t="s">
-        <v>147</v>
+      <c r="A161" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="B161" s="3">
-        <v>11580</v>
+        <v>17213</v>
       </c>
       <c r="C161" s="3">
-        <v>7498</v>
+        <v>11131</v>
       </c>
       <c r="D161" s="3">
-        <v>4082</v>
+        <v>6082</v>
       </c>
       <c r="E161" s="8">
         <v>2019</v>
@@ -5086,17 +5331,17 @@
       <c r="J161" s="2"/>
     </row>
     <row r="162" spans="1:10" ht="21">
-      <c r="A162" s="7" t="s">
-        <v>238</v>
+      <c r="A162" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="B162" s="2">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
       </c>
       <c r="D162" s="2">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E162" s="8">
         <v>2019</v>
@@ -5110,17 +5355,17 @@
       <c r="J162" s="2"/>
     </row>
     <row r="163" spans="1:10" ht="21">
-      <c r="A163" s="7" t="s">
-        <v>148</v>
+      <c r="A163" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="B163" s="3">
-        <v>17089347</v>
+        <v>25430165</v>
       </c>
       <c r="C163" s="3">
-        <v>7908148</v>
+        <v>11763229</v>
       </c>
       <c r="D163" s="3">
-        <v>9181199</v>
+        <v>13666936</v>
       </c>
       <c r="E163" s="8">
         <v>2019</v>
@@ -5134,14 +5379,14 @@
       <c r="J163" s="2"/>
     </row>
     <row r="164" spans="1:10" ht="21">
-      <c r="A164" s="7" t="s">
-        <v>149</v>
+      <c r="A164" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="B164" s="3">
-        <v>4161</v>
+        <v>6177</v>
       </c>
       <c r="C164" s="3">
-        <v>4161</v>
+        <v>6176</v>
       </c>
       <c r="D164" s="2">
         <v>1</v>
@@ -5158,17 +5403,17 @@
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10" ht="21">
-      <c r="A165" s="7" t="s">
-        <v>150</v>
+      <c r="A165" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="B165" s="3">
-        <v>580069</v>
+        <v>863247</v>
       </c>
       <c r="C165" s="3">
-        <v>385794</v>
+        <v>574007</v>
       </c>
       <c r="D165" s="3">
-        <v>194275</v>
+        <v>289240</v>
       </c>
       <c r="E165" s="8">
         <v>2019</v>
@@ -5182,17 +5427,17 @@
       <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10" ht="21">
-      <c r="A166" s="7" t="s">
-        <v>151</v>
+      <c r="A166" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="B166" s="3">
-        <v>1742</v>
+        <v>2593</v>
       </c>
       <c r="C166" s="3">
-        <v>1742</v>
+        <v>2593</v>
       </c>
       <c r="D166" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166" s="8">
         <v>2019</v>
@@ -5206,17 +5451,17 @@
       <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:10" ht="21">
-      <c r="A167" s="7" t="s">
-        <v>152</v>
+      <c r="A167" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="B167" s="3">
-        <v>8022</v>
+        <v>11889</v>
       </c>
       <c r="C167" s="3">
-        <v>8022</v>
+        <v>11889</v>
       </c>
       <c r="D167" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167" s="8">
         <v>2019</v>
@@ -5230,17 +5475,17 @@
       <c r="J167" s="2"/>
     </row>
     <row r="168" spans="1:10" ht="21">
-      <c r="A168" s="7" t="s">
-        <v>153</v>
+      <c r="A168" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="B168" s="3">
-        <v>9123</v>
+        <v>13573</v>
       </c>
       <c r="C168" s="3">
-        <v>7818</v>
+        <v>11628</v>
       </c>
       <c r="D168" s="3">
-        <v>1305</v>
+        <v>1945</v>
       </c>
       <c r="E168" s="8">
         <v>2019</v>
@@ -5254,17 +5499,17 @@
       <c r="J168" s="2"/>
     </row>
     <row r="169" spans="1:10" ht="21">
-      <c r="A169" s="7" t="s">
-        <v>154</v>
+      <c r="A169" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="B169" s="3">
-        <v>7408</v>
+        <v>11025</v>
       </c>
       <c r="C169" s="3">
-        <v>7406</v>
+        <v>11023</v>
       </c>
       <c r="D169" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169" s="8">
         <v>2019</v>
@@ -5278,17 +5523,17 @@
       <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" ht="21">
-      <c r="A170" s="7" t="s">
-        <v>155</v>
+      <c r="A170" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="B170" s="3">
-        <v>69026</v>
+        <v>102757</v>
       </c>
       <c r="C170" s="3">
-        <v>54798</v>
+        <v>81557</v>
       </c>
       <c r="D170" s="3">
-        <v>14228</v>
+        <v>21200</v>
       </c>
       <c r="E170" s="8">
         <v>2019</v>
@@ -5302,8 +5547,8 @@
       <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10" ht="21">
-      <c r="A171" s="7" t="s">
-        <v>156</v>
+      <c r="A171" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="B171" s="2">
         <v>0</v>
@@ -5312,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="8">
         <v>2019</v>
@@ -5326,17 +5571,17 @@
       <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10" ht="21">
-      <c r="A172" s="7" t="s">
-        <v>157</v>
+      <c r="A172" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="B172" s="3">
-        <v>6293346</v>
+        <v>9366784</v>
       </c>
       <c r="C172" s="3">
-        <v>1772156</v>
+        <v>2635562</v>
       </c>
       <c r="D172" s="3">
-        <v>4521190</v>
+        <v>6731222</v>
       </c>
       <c r="E172" s="8">
         <v>2019</v>
@@ -5350,17 +5595,17 @@
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" ht="21">
-      <c r="A173" s="7" t="s">
-        <v>158</v>
+      <c r="A173" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="B173" s="3">
-        <v>1626</v>
+        <v>2412</v>
       </c>
       <c r="C173" s="3">
-        <v>1605</v>
+        <v>2380</v>
       </c>
       <c r="D173" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E173" s="8">
         <v>2019</v>
@@ -5374,17 +5619,17 @@
       <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10" ht="21">
-      <c r="A174" s="7" t="s">
-        <v>159</v>
+      <c r="A174" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="B174" s="3">
-        <v>2267819</v>
+        <v>3374768</v>
       </c>
       <c r="C174" s="3">
-        <v>748548</v>
+        <v>1113531</v>
       </c>
       <c r="D174" s="3">
-        <v>1519270</v>
+        <v>2261238</v>
       </c>
       <c r="E174" s="8">
         <v>2019</v>
@@ -5398,17 +5643,17 @@
       <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" ht="21">
-      <c r="A175" s="7" t="s">
-        <v>160</v>
+      <c r="A175" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="B175" s="3">
-        <v>923625</v>
+        <v>1375154</v>
       </c>
       <c r="C175" s="3">
-        <v>456292</v>
+        <v>678699</v>
       </c>
       <c r="D175" s="3">
-        <v>467334</v>
+        <v>696454</v>
       </c>
       <c r="E175" s="8">
         <v>2019</v>
@@ -5422,17 +5667,17 @@
       <c r="J175" s="2"/>
     </row>
     <row r="176" spans="1:10" ht="21">
-      <c r="A176" s="7" t="s">
-        <v>161</v>
+      <c r="A176" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="B176" s="3">
-        <v>1507</v>
+        <v>2241</v>
       </c>
       <c r="C176" s="3">
-        <v>1493</v>
+        <v>2220</v>
       </c>
       <c r="D176" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E176" s="8">
         <v>2019</v>
@@ -5446,17 +5691,17 @@
       <c r="J176" s="2"/>
     </row>
     <row r="177" spans="1:10" ht="21">
-      <c r="A177" s="7" t="s">
-        <v>162</v>
+      <c r="A177" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="B177" s="3">
-        <v>144023</v>
+        <v>214340</v>
       </c>
       <c r="C177" s="3">
-        <v>94453</v>
+        <v>140539</v>
       </c>
       <c r="D177" s="3">
-        <v>49570</v>
+        <v>73802</v>
       </c>
       <c r="E177" s="8">
         <v>2019</v>
@@ -5470,17 +5715,17 @@
       <c r="J177" s="2"/>
     </row>
     <row r="178" spans="1:10" ht="21">
-      <c r="A178" s="7" t="s">
-        <v>163</v>
+      <c r="A178" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="B178" s="3">
-        <v>146089</v>
+        <v>217263</v>
       </c>
       <c r="C178" s="3">
-        <v>84616</v>
+        <v>125904</v>
       </c>
       <c r="D178" s="3">
-        <v>61473</v>
+        <v>91359</v>
       </c>
       <c r="E178" s="8">
         <v>2019</v>
@@ -5494,17 +5739,17 @@
       <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" ht="21">
-      <c r="A179" s="7" t="s">
-        <v>164</v>
+      <c r="A179" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="B179" s="3">
-        <v>2733</v>
+        <v>4070</v>
       </c>
       <c r="C179" s="3">
-        <v>2733</v>
+        <v>4069</v>
       </c>
       <c r="D179" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" s="8">
         <v>2019</v>
@@ -5518,17 +5763,17 @@
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" ht="21">
-      <c r="A180" s="7" t="s">
-        <v>165</v>
+      <c r="A180" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="B180" s="3">
-        <v>169740</v>
+        <v>252530</v>
       </c>
       <c r="C180" s="3">
-        <v>143861</v>
+        <v>213975</v>
       </c>
       <c r="D180" s="3">
-        <v>25879</v>
+        <v>38556</v>
       </c>
       <c r="E180" s="8">
         <v>2019</v>
@@ -5542,17 +5787,17 @@
       <c r="J180" s="2"/>
     </row>
     <row r="181" spans="1:10" ht="21">
-      <c r="A181" s="7" t="s">
-        <v>166</v>
+      <c r="A181" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="B181" s="3">
-        <v>315148</v>
+        <v>468911</v>
       </c>
       <c r="C181" s="3">
-        <v>197385</v>
+        <v>293460</v>
       </c>
       <c r="D181" s="3">
-        <v>117763</v>
+        <v>175451</v>
       </c>
       <c r="E181" s="8">
         <v>2019</v>
@@ -5566,14 +5811,14 @@
       <c r="J181" s="2"/>
     </row>
     <row r="182" spans="1:10" ht="21">
-      <c r="A182" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B182" s="2">
-        <v>921</v>
-      </c>
-      <c r="C182" s="2">
-        <v>921</v>
+      <c r="A182" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" s="3">
+        <v>1370</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1370</v>
       </c>
       <c r="D182" s="2">
         <v>0</v>
@@ -5590,14 +5835,14 @@
       <c r="J182" s="2"/>
     </row>
     <row r="183" spans="1:10" ht="21">
-      <c r="A183" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B183" s="2">
-        <v>867</v>
-      </c>
-      <c r="C183" s="2">
-        <v>867</v>
+      <c r="A183" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" s="3">
+        <v>1289</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1289</v>
       </c>
       <c r="D183" s="2">
         <v>0</v>
@@ -5614,14 +5859,14 @@
       <c r="J183" s="2"/>
     </row>
     <row r="184" spans="1:10" ht="21">
-      <c r="A184" s="7" t="s">
-        <v>169</v>
+      <c r="A184" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="B184" s="3">
-        <v>2253</v>
+        <v>3352</v>
       </c>
       <c r="C184" s="3">
-        <v>2253</v>
+        <v>3352</v>
       </c>
       <c r="D184" s="2">
         <v>0</v>
@@ -5638,17 +5883,17 @@
       <c r="J184" s="2"/>
     </row>
     <row r="185" spans="1:10" ht="21">
-      <c r="A185" s="7" t="s">
-        <v>170</v>
+      <c r="A185" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="B185" s="3">
-        <v>134271</v>
+        <v>199754</v>
       </c>
       <c r="C185" s="3">
-        <v>126061</v>
+        <v>187519</v>
       </c>
       <c r="D185" s="3">
-        <v>8211</v>
+        <v>12235</v>
       </c>
       <c r="E185" s="8">
         <v>2019</v>
@@ -5662,17 +5907,17 @@
       <c r="J185" s="2"/>
     </row>
     <row r="186" spans="1:10" ht="21">
-      <c r="A186" s="7" t="s">
-        <v>171</v>
+      <c r="A186" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="B186" s="3">
-        <v>15220</v>
+        <v>22645</v>
       </c>
       <c r="C186" s="3">
-        <v>14305</v>
-      </c>
-      <c r="D186" s="2">
-        <v>915</v>
+        <v>21281</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1364</v>
       </c>
       <c r="E186" s="8">
         <v>2019</v>
@@ -5686,17 +5931,17 @@
       <c r="J186" s="2"/>
     </row>
     <row r="187" spans="1:10" ht="21">
-      <c r="A187" s="7" t="s">
-        <v>172</v>
+      <c r="A187" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="B187" s="3">
-        <v>33568</v>
+        <v>49932</v>
       </c>
       <c r="C187" s="3">
-        <v>33241</v>
+        <v>49445</v>
       </c>
       <c r="D187" s="2">
-        <v>327</v>
+        <v>487</v>
       </c>
       <c r="E187" s="8">
         <v>2019</v>
@@ -5710,17 +5955,17 @@
       <c r="J187" s="2"/>
     </row>
     <row r="188" spans="1:10" ht="21">
-      <c r="A188" s="7" t="s">
-        <v>173</v>
+      <c r="A188" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="B188" s="3">
-        <v>60100</v>
+        <v>89371</v>
       </c>
       <c r="C188" s="3">
-        <v>58691</v>
+        <v>87274</v>
       </c>
       <c r="D188" s="3">
-        <v>1409</v>
+        <v>2097</v>
       </c>
       <c r="E188" s="8">
         <v>2019</v>
@@ -5734,17 +5979,17 @@
       <c r="J188" s="2"/>
     </row>
     <row r="189" spans="1:10" ht="21">
-      <c r="A189" s="7" t="s">
-        <v>174</v>
+      <c r="A189" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="B189" s="3">
-        <v>51972</v>
+        <v>77350</v>
       </c>
       <c r="C189" s="3">
-        <v>43529</v>
+        <v>64767</v>
       </c>
       <c r="D189" s="3">
-        <v>8444</v>
+        <v>12583</v>
       </c>
       <c r="E189" s="8">
         <v>2019</v>
@@ -5758,17 +6003,17 @@
       <c r="J189" s="2"/>
     </row>
     <row r="190" spans="1:10" ht="21">
-      <c r="A190" s="7" t="s">
-        <v>175</v>
+      <c r="A190" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="B190" s="3">
-        <v>1338</v>
+        <v>1991</v>
       </c>
       <c r="C190" s="3">
-        <v>1336</v>
+        <v>1988</v>
       </c>
       <c r="D190" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E190" s="8">
         <v>2019</v>
@@ -5782,17 +6027,17 @@
       <c r="J190" s="2"/>
     </row>
     <row r="191" spans="1:10" ht="21">
-      <c r="A191" s="7" t="s">
-        <v>176</v>
+      <c r="A191" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="B191" s="3">
-        <v>3198398</v>
+        <v>4758093</v>
       </c>
       <c r="C191" s="3">
-        <v>2433982</v>
+        <v>3620911</v>
       </c>
       <c r="D191" s="3">
-        <v>764416</v>
+        <v>1137181</v>
       </c>
       <c r="E191" s="8">
         <v>2019</v>
@@ -5806,17 +6051,17 @@
       <c r="J191" s="2"/>
     </row>
     <row r="192" spans="1:10" ht="21">
-      <c r="A192" s="7" t="s">
-        <v>177</v>
+      <c r="A192" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="B192" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C192" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E192" s="8">
         <v>2019</v>
@@ -5830,17 +6075,17 @@
       <c r="J192" s="2"/>
     </row>
     <row r="193" spans="1:10" ht="21">
-      <c r="A193" s="7" t="s">
-        <v>178</v>
+      <c r="A193" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="B193" s="3">
-        <v>32608</v>
+        <v>48502</v>
       </c>
       <c r="C193" s="3">
-        <v>30214</v>
+        <v>44943</v>
       </c>
       <c r="D193" s="3">
-        <v>2394</v>
+        <v>3559</v>
       </c>
       <c r="E193" s="8">
         <v>2019</v>
@@ -5854,17 +6099,17 @@
       <c r="J193" s="2"/>
     </row>
     <row r="194" spans="1:10" ht="21">
-      <c r="A194" s="7" t="s">
-        <v>179</v>
+      <c r="A194" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="B194" s="3">
-        <v>367232</v>
+        <v>546238</v>
       </c>
       <c r="C194" s="3">
-        <v>364818</v>
+        <v>542643</v>
       </c>
       <c r="D194" s="3">
-        <v>2414</v>
+        <v>3596</v>
       </c>
       <c r="E194" s="8">
         <v>2019</v>
@@ -5878,17 +6123,17 @@
       <c r="J194" s="2"/>
     </row>
     <row r="195" spans="1:10" ht="21">
-      <c r="A195" s="7" t="s">
-        <v>180</v>
+      <c r="A195" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="B195" s="3">
-        <v>78982</v>
+        <v>117478</v>
       </c>
       <c r="C195" s="3">
-        <v>78267</v>
-      </c>
-      <c r="D195" s="2">
-        <v>714</v>
+        <v>116414</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1064</v>
       </c>
       <c r="E195" s="8">
         <v>2019</v>
@@ -5902,17 +6147,17 @@
       <c r="J195" s="2"/>
     </row>
     <row r="196" spans="1:10" ht="21">
-      <c r="A196" s="7" t="s">
-        <v>181</v>
+      <c r="A196" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="B196" s="3">
-        <v>1134788</v>
+        <v>1689030</v>
       </c>
       <c r="C196" s="3">
-        <v>460735</v>
+        <v>685401</v>
       </c>
       <c r="D196" s="3">
-        <v>674054</v>
+        <v>1003629</v>
       </c>
       <c r="E196" s="8">
         <v>2019</v>
@@ -5926,17 +6171,17 @@
       <c r="J196" s="2"/>
     </row>
     <row r="197" spans="1:10" ht="21">
-      <c r="A197" s="7" t="s">
-        <v>239</v>
+      <c r="A197" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="B197" s="3">
-        <v>85454</v>
+        <v>127069</v>
       </c>
       <c r="C197" s="3">
-        <v>41511</v>
+        <v>61705</v>
       </c>
       <c r="D197" s="3">
-        <v>43943</v>
+        <v>65363</v>
       </c>
       <c r="E197" s="8">
         <v>2019</v>
@@ -5950,8 +6195,8 @@
       <c r="J197" s="2"/>
     </row>
     <row r="198" spans="1:10" ht="21">
-      <c r="A198" s="7" t="s">
-        <v>240</v>
+      <c r="A198" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="B198" s="2">
         <v>0</v>
@@ -5960,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="8">
         <v>2019</v>
@@ -5974,17 +6219,17 @@
       <c r="J198" s="2"/>
     </row>
     <row r="199" spans="1:10" ht="21">
-      <c r="A199" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B199" s="2">
-        <v>969</v>
-      </c>
-      <c r="C199" s="2">
-        <v>953</v>
+      <c r="A199" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" s="3">
+        <v>1439</v>
+      </c>
+      <c r="C199" s="3">
+        <v>1415</v>
       </c>
       <c r="D199" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E199" s="8">
         <v>2019</v>
@@ -5998,14 +6243,14 @@
       <c r="J199" s="2"/>
     </row>
     <row r="200" spans="1:10" ht="21">
-      <c r="A200" s="7" t="s">
-        <v>183</v>
+      <c r="A200" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="B200" s="2">
-        <v>311</v>
+        <v>462</v>
       </c>
       <c r="C200" s="2">
-        <v>311</v>
+        <v>462</v>
       </c>
       <c r="D200" s="2">
         <v>0</v>
@@ -6022,14 +6267,14 @@
       <c r="J200" s="2"/>
     </row>
     <row r="201" spans="1:10" ht="21">
-      <c r="A201" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B201" s="2">
-        <v>777</v>
-      </c>
-      <c r="C201" s="2">
-        <v>777</v>
+      <c r="A201" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201" s="3">
+        <v>1152</v>
+      </c>
+      <c r="C201" s="3">
+        <v>1152</v>
       </c>
       <c r="D201" s="2">
         <v>0</v>
@@ -6046,17 +6291,17 @@
       <c r="J201" s="2"/>
     </row>
     <row r="202" spans="1:10" ht="21">
-      <c r="A202" s="7" t="s">
-        <v>185</v>
+      <c r="A202" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="B202" s="3">
-        <v>59741</v>
+        <v>88805</v>
       </c>
       <c r="C202" s="3">
-        <v>56162</v>
+        <v>83478</v>
       </c>
       <c r="D202" s="3">
-        <v>3580</v>
+        <v>5327</v>
       </c>
       <c r="E202" s="8">
         <v>2019</v>
@@ -6070,17 +6315,17 @@
       <c r="J202" s="2"/>
     </row>
     <row r="203" spans="1:10" ht="21">
-      <c r="A203" s="7" t="s">
-        <v>241</v>
+      <c r="A203" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="B203" s="3">
-        <v>15302</v>
+        <v>22778</v>
       </c>
       <c r="C203" s="3">
-        <v>11409</v>
+        <v>16977</v>
       </c>
       <c r="D203" s="3">
-        <v>3894</v>
+        <v>5801</v>
       </c>
       <c r="E203" s="8">
         <v>2019</v>
@@ -6094,17 +6339,17 @@
       <c r="J203" s="2"/>
     </row>
     <row r="204" spans="1:10" ht="21">
-      <c r="A204" s="7" t="s">
-        <v>186</v>
+      <c r="A204" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="B204" s="3">
-        <v>49673</v>
+        <v>73987</v>
       </c>
       <c r="C204" s="3">
-        <v>16784</v>
+        <v>24973</v>
       </c>
       <c r="D204" s="3">
-        <v>32889</v>
+        <v>49014</v>
       </c>
       <c r="E204" s="8">
         <v>2019</v>
@@ -6118,17 +6363,17 @@
       <c r="J204" s="2"/>
     </row>
     <row r="205" spans="1:10" ht="21">
-      <c r="A205" s="7" t="s">
-        <v>187</v>
+      <c r="A205" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="B205" s="2">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="C205" s="2">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E205" s="8">
         <v>2019</v>
@@ -6142,17 +6387,17 @@
       <c r="J205" s="2"/>
     </row>
     <row r="206" spans="1:10" ht="21">
-      <c r="A206" s="7" t="s">
-        <v>242</v>
+      <c r="A206" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="B206" s="3">
-        <v>243363</v>
+        <v>362231</v>
       </c>
       <c r="C206" s="3">
-        <v>108472</v>
+        <v>161342</v>
       </c>
       <c r="D206" s="3">
-        <v>134891</v>
+        <v>200889</v>
       </c>
       <c r="E206" s="8">
         <v>2019</v>
@@ -6166,17 +6411,17 @@
       <c r="J206" s="2"/>
     </row>
     <row r="207" spans="1:10" ht="21">
-      <c r="A207" s="7" t="s">
-        <v>188</v>
+      <c r="A207" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="B207" s="3">
-        <v>572984</v>
+        <v>851587</v>
       </c>
       <c r="C207" s="3">
-        <v>46865</v>
+        <v>69751</v>
       </c>
       <c r="D207" s="3">
-        <v>526119</v>
+        <v>781836</v>
       </c>
       <c r="E207" s="8">
         <v>2019</v>
@@ -6190,17 +6435,17 @@
       <c r="J207" s="2"/>
     </row>
     <row r="208" spans="1:10" ht="21">
-      <c r="A208" s="7" t="s">
-        <v>189</v>
+      <c r="A208" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="B208" s="3">
-        <v>1086</v>
-      </c>
-      <c r="C208" s="2">
-        <v>870</v>
+        <v>1613</v>
+      </c>
+      <c r="C208" s="3">
+        <v>1291</v>
       </c>
       <c r="D208" s="2">
-        <v>216</v>
+        <v>322</v>
       </c>
       <c r="E208" s="8">
         <v>2019</v>
@@ -6214,17 +6459,17 @@
       <c r="J208" s="2"/>
     </row>
     <row r="209" spans="1:10" ht="21">
-      <c r="A209" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B209" s="2">
-        <v>747</v>
-      </c>
-      <c r="C209" s="2">
-        <v>724</v>
+      <c r="A209" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" s="3">
+        <v>1111</v>
+      </c>
+      <c r="C209" s="3">
+        <v>1076</v>
       </c>
       <c r="D209" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E209" s="8">
         <v>2019</v>
@@ -6238,8 +6483,8 @@
       <c r="J209" s="2"/>
     </row>
     <row r="210" spans="1:10" ht="21">
-      <c r="A210" s="7" t="s">
-        <v>191</v>
+      <c r="A210" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="B210" s="2">
         <v>1</v>
@@ -6248,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E210" s="8">
         <v>2019</v>
@@ -6262,14 +6507,14 @@
       <c r="J210" s="2"/>
     </row>
     <row r="211" spans="1:10" ht="21">
-      <c r="A211" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B211" s="2">
-        <v>748</v>
-      </c>
-      <c r="C211" s="2">
-        <v>748</v>
+      <c r="A211" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1113</v>
+      </c>
+      <c r="C211" s="3">
+        <v>1113</v>
       </c>
       <c r="D211" s="2">
         <v>0</v>
@@ -6286,17 +6531,17 @@
       <c r="J211" s="2"/>
     </row>
     <row r="212" spans="1:10" ht="21">
-      <c r="A212" s="7" t="s">
-        <v>193</v>
+      <c r="A212" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="B212" s="2">
-        <v>294</v>
+        <v>437</v>
       </c>
       <c r="C212" s="2">
-        <v>294</v>
+        <v>437</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E212" s="8">
         <v>2019</v>
@@ -6310,17 +6555,17 @@
       <c r="J212" s="2"/>
     </row>
     <row r="213" spans="1:10" ht="21">
-      <c r="A213" s="7" t="s">
-        <v>194</v>
+      <c r="A213" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="B213" s="3">
-        <v>31659798</v>
+        <v>47111637</v>
       </c>
       <c r="C213" s="3">
-        <v>22890201</v>
+        <v>34057599</v>
       </c>
       <c r="D213" s="3">
-        <v>8769597</v>
+        <v>13054038</v>
       </c>
       <c r="E213" s="8">
         <v>2019</v>
@@ -6334,17 +6579,17 @@
       <c r="J213" s="2"/>
     </row>
     <row r="214" spans="1:10" ht="21">
-      <c r="A214" s="7" t="s">
-        <v>195</v>
+      <c r="A214" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="B214" s="3">
-        <v>3629067</v>
+        <v>5400730</v>
       </c>
       <c r="C214" s="3">
-        <v>1814717</v>
+        <v>2699976</v>
       </c>
       <c r="D214" s="3">
-        <v>1814350</v>
+        <v>2700754</v>
       </c>
       <c r="E214" s="8">
         <v>2019</v>
@@ -6358,17 +6603,17 @@
       <c r="J214" s="2"/>
     </row>
     <row r="215" spans="1:10" ht="21">
-      <c r="A215" s="7" t="s">
-        <v>196</v>
+      <c r="A215" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="B215" s="3">
-        <v>28020351</v>
+        <v>41695446</v>
       </c>
       <c r="C215" s="3">
-        <v>21074682</v>
+        <v>31356430</v>
       </c>
       <c r="D215" s="3">
-        <v>6945669</v>
+        <v>10339016</v>
       </c>
       <c r="E215" s="8">
         <v>2019</v>
@@ -6382,17 +6627,17 @@
       <c r="J215" s="2"/>
     </row>
     <row r="216" spans="1:10" ht="21">
-      <c r="A216" s="7" t="s">
-        <v>243</v>
+      <c r="A216" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="B216" s="3">
-        <v>9607</v>
+        <v>14310</v>
       </c>
       <c r="C216" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D216" s="3">
-        <v>9577</v>
+        <v>14265</v>
       </c>
       <c r="E216" s="8">
         <v>2019</v>
@@ -6406,17 +6651,17 @@
       <c r="J216" s="2"/>
     </row>
     <row r="217" spans="1:10" ht="21">
-      <c r="A217" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B217" s="2">
-        <v>741</v>
-      </c>
-      <c r="C217" s="2">
-        <v>740</v>
+      <c r="A217" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217" s="3">
+        <v>1103</v>
+      </c>
+      <c r="C217" s="3">
+        <v>1101</v>
       </c>
       <c r="D217" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217" s="8">
         <v>2019</v>
@@ -6430,17 +6675,17 @@
       <c r="J217" s="2"/>
     </row>
     <row r="218" spans="1:10" ht="21">
-      <c r="A218" s="7" t="s">
-        <v>198</v>
+      <c r="A218" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="B218" s="2">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C218" s="2">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E218" s="8">
         <v>2019</v>
@@ -6454,17 +6699,17 @@
       <c r="J218" s="2"/>
     </row>
     <row r="219" spans="1:10" ht="21">
-      <c r="A219" s="7" t="s">
-        <v>244</v>
+      <c r="A219" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="B219" s="3">
-        <v>10468389</v>
+        <v>15570902</v>
       </c>
       <c r="C219" s="3">
-        <v>2698401</v>
+        <v>4013437</v>
       </c>
       <c r="D219" s="3">
-        <v>7769988</v>
+        <v>11557465</v>
       </c>
       <c r="E219" s="8">
         <v>2019</v>
@@ -6478,17 +6723,17 @@
       <c r="J219" s="2"/>
     </row>
     <row r="220" spans="1:10" ht="21">
-      <c r="A220" s="7" t="s">
-        <v>245</v>
+      <c r="A220" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="B220" s="3">
-        <v>8863193</v>
+        <v>13182522</v>
       </c>
       <c r="C220" s="3">
-        <v>2233524</v>
+        <v>3322154</v>
       </c>
       <c r="D220" s="3">
-        <v>6629669</v>
+        <v>9860368</v>
       </c>
       <c r="E220" s="8">
         <v>2019</v>
@@ -6502,17 +6747,17 @@
       <c r="J220" s="2"/>
     </row>
     <row r="221" spans="1:10" ht="21">
-      <c r="A221" s="7" t="s">
-        <v>246</v>
+      <c r="A221" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="B221" s="3">
-        <v>8470</v>
+        <v>12622</v>
       </c>
       <c r="C221" s="3">
-        <v>8462</v>
+        <v>12611</v>
       </c>
       <c r="D221" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E221" s="8">
         <v>2019</v>
@@ -6526,17 +6771,17 @@
       <c r="J221" s="2"/>
     </row>
     <row r="222" spans="1:10" ht="21">
-      <c r="A222" s="7" t="s">
-        <v>199</v>
+      <c r="A222" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="B222" s="3">
-        <v>19120</v>
+        <v>28451</v>
       </c>
       <c r="C222" s="3">
-        <v>18314</v>
-      </c>
-      <c r="D222" s="2">
-        <v>807</v>
+        <v>27249</v>
+      </c>
+      <c r="D222" s="3">
+        <v>1202</v>
       </c>
       <c r="E222" s="8">
         <v>2019</v>
@@ -6550,8 +6795,8 @@
       <c r="J222" s="2"/>
     </row>
     <row r="223" spans="1:10" ht="21">
-      <c r="A223" s="7" t="s">
-        <v>200</v>
+      <c r="A223" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="B223" s="2">
         <v>1</v>
@@ -6560,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E223" s="8">
         <v>2019</v>
@@ -6574,17 +6819,17 @@
       <c r="J223" s="2"/>
     </row>
     <row r="224" spans="1:10" ht="21">
-      <c r="A224" s="7" t="s">
-        <v>201</v>
+      <c r="A224" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="8">
         <v>2019</v>
@@ -6598,17 +6843,17 @@
       <c r="J224" s="2"/>
     </row>
     <row r="225" spans="1:10" ht="21">
-      <c r="A225" s="7" t="s">
-        <v>247</v>
+      <c r="A225" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="B225" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C225" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E225" s="8">
         <v>2019</v>
@@ -6622,17 +6867,17 @@
       <c r="J225" s="2"/>
     </row>
     <row r="226" spans="1:10" ht="21">
-      <c r="A226" s="7" t="s">
-        <v>202</v>
+      <c r="A226" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="B226" s="3">
-        <v>91582</v>
+        <v>136417</v>
       </c>
       <c r="C226" s="3">
-        <v>4923</v>
+        <v>7326</v>
       </c>
       <c r="D226" s="3">
-        <v>86659</v>
+        <v>129091</v>
       </c>
       <c r="E226" s="8">
         <v>2019</v>
@@ -6646,17 +6891,17 @@
       <c r="J226" s="2"/>
     </row>
     <row r="227" spans="1:10" ht="21">
-      <c r="A227" s="7" t="s">
-        <v>203</v>
+      <c r="A227" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="B227" s="3">
-        <v>3788</v>
+        <v>5638</v>
       </c>
       <c r="C227" s="3">
-        <v>3192</v>
+        <v>4750</v>
       </c>
       <c r="D227" s="2">
-        <v>596</v>
+        <v>888</v>
       </c>
       <c r="E227" s="8">
         <v>2019</v>
@@ -6670,17 +6915,17 @@
       <c r="J227" s="2"/>
     </row>
     <row r="228" spans="1:10" ht="21">
-      <c r="A228" s="7" t="s">
-        <v>204</v>
+      <c r="A228" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="B228" s="3">
-        <v>1097714</v>
+        <v>1633068</v>
       </c>
       <c r="C228" s="3">
-        <v>287645</v>
+        <v>427962</v>
       </c>
       <c r="D228" s="3">
-        <v>810069</v>
+        <v>1205107</v>
       </c>
       <c r="E228" s="8">
         <v>2019</v>
@@ -6694,17 +6939,17 @@
       <c r="J228" s="2"/>
     </row>
     <row r="229" spans="1:10" ht="21">
-      <c r="A229" s="7" t="s">
-        <v>205</v>
+      <c r="A229" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="B229" s="2">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C229" s="2">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E229" s="8">
         <v>2019</v>
@@ -6718,17 +6963,17 @@
       <c r="J229" s="2"/>
     </row>
     <row r="230" spans="1:10" ht="21">
-      <c r="A230" s="7" t="s">
-        <v>248</v>
+      <c r="A230" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="B230" s="3">
-        <v>243353</v>
+        <v>362476</v>
       </c>
       <c r="C230" s="3">
-        <v>40246</v>
+        <v>59876</v>
       </c>
       <c r="D230" s="3">
-        <v>203106</v>
+        <v>302601</v>
       </c>
       <c r="E230" s="8">
         <v>2019</v>
@@ -6742,17 +6987,17 @@
       <c r="J230" s="2"/>
     </row>
     <row r="231" spans="1:10" ht="21">
-      <c r="A231" s="7" t="s">
-        <v>206</v>
+      <c r="A231" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="B231" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C231" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="8">
         <v>2019</v>
@@ -6766,17 +7011,17 @@
       <c r="J231" s="2"/>
     </row>
     <row r="232" spans="1:10" ht="21">
-      <c r="A232" s="7" t="s">
-        <v>207</v>
+      <c r="A232" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="B232" s="3">
-        <v>44336</v>
+        <v>66026</v>
       </c>
       <c r="C232" s="3">
-        <v>8337</v>
+        <v>12410</v>
       </c>
       <c r="D232" s="3">
-        <v>35999</v>
+        <v>53616</v>
       </c>
       <c r="E232" s="8">
         <v>2019</v>
@@ -6790,17 +7035,17 @@
       <c r="J232" s="2"/>
     </row>
     <row r="233" spans="1:10" ht="21">
-      <c r="A233" s="7" t="s">
-        <v>208</v>
+      <c r="A233" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="B233" s="3">
-        <v>1483</v>
+        <v>2206</v>
       </c>
       <c r="C233" s="3">
-        <v>1454</v>
+        <v>2163</v>
       </c>
       <c r="D233" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E233" s="8">
         <v>2019</v>
@@ -6814,8 +7059,8 @@
       <c r="J233" s="2"/>
     </row>
     <row r="234" spans="1:10" ht="21">
-      <c r="A234" s="7" t="s">
-        <v>209</v>
+      <c r="A234" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="B234" s="2">
         <v>0</v>
@@ -6824,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="8">
         <v>2019</v>
@@ -6838,8 +7083,8 @@
       <c r="J234" s="2"/>
     </row>
     <row r="235" spans="1:10" ht="21">
-      <c r="A235" s="7" t="s">
-        <v>210</v>
+      <c r="A235" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="B235" s="2">
         <v>0</v>
@@ -6848,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="8">
         <v>2019</v>
@@ -6862,17 +7107,17 @@
       <c r="J235" s="2"/>
     </row>
     <row r="236" spans="1:10" ht="21">
-      <c r="A236" s="7" t="s">
-        <v>211</v>
+      <c r="A236" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="B236" s="3">
-        <v>7623</v>
+        <v>11360</v>
       </c>
       <c r="C236" s="3">
-        <v>7578</v>
+        <v>11293</v>
       </c>
       <c r="D236" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E236" s="8">
         <v>2019</v>
@@ -6886,17 +7131,17 @@
       <c r="J236" s="2"/>
     </row>
     <row r="237" spans="1:10" ht="21">
-      <c r="A237" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B237" s="2">
-        <v>792</v>
-      </c>
-      <c r="C237" s="2">
-        <v>792</v>
+      <c r="A237" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237" s="3">
+        <v>1179</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1179</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E237" s="8">
         <v>2019</v>
@@ -6910,17 +7155,17 @@
       <c r="J237" s="2"/>
     </row>
     <row r="238" spans="1:10" ht="21">
-      <c r="A238" s="7" t="s">
-        <v>213</v>
+      <c r="A238" s="10" t="s">
+        <v>242</v>
       </c>
       <c r="B238" s="3">
-        <v>1203</v>
+        <v>1791</v>
       </c>
       <c r="C238" s="3">
-        <v>1203</v>
+        <v>1791</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E238" s="8">
         <v>2019</v>
@@ -6934,17 +7179,17 @@
       <c r="J238" s="2"/>
     </row>
     <row r="239" spans="1:10" ht="21">
-      <c r="A239" s="7" t="s">
-        <v>214</v>
+      <c r="A239" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="B239" s="3">
-        <v>1101</v>
-      </c>
-      <c r="C239" s="2">
-        <v>817</v>
+        <v>1636</v>
+      </c>
+      <c r="C239" s="3">
+        <v>1214</v>
       </c>
       <c r="D239" s="2">
-        <v>283</v>
+        <v>422</v>
       </c>
       <c r="E239" s="8">
         <v>2019</v>
@@ -6958,17 +7203,17 @@
       <c r="J239" s="2"/>
     </row>
     <row r="240" spans="1:10" ht="21">
-      <c r="A240" s="7" t="s">
-        <v>215</v>
+      <c r="A240" s="10" t="s">
+        <v>244</v>
       </c>
       <c r="B240" s="3">
-        <v>76160</v>
+        <v>112897</v>
       </c>
       <c r="C240" s="3">
-        <v>73941</v>
+        <v>109590</v>
       </c>
       <c r="D240" s="3">
-        <v>2219</v>
+        <v>3307</v>
       </c>
       <c r="E240" s="8">
         <v>2019</v>
@@ -6982,14 +7227,14 @@
       <c r="J240" s="2"/>
     </row>
     <row r="241" spans="1:10" ht="21">
-      <c r="A241" s="7" t="s">
-        <v>216</v>
+      <c r="A241" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="B241" s="2">
-        <v>555</v>
+        <v>827</v>
       </c>
       <c r="C241" s="2">
-        <v>555</v>
+        <v>827</v>
       </c>
       <c r="D241" s="2">
         <v>0</v>
@@ -7006,17 +7251,17 @@
       <c r="J241" s="2"/>
     </row>
     <row r="242" spans="1:10" ht="21">
-      <c r="A242" s="7" t="s">
-        <v>217</v>
+      <c r="A242" s="10" t="s">
+        <v>246</v>
       </c>
       <c r="B242" s="3">
-        <v>4769</v>
+        <v>7098</v>
       </c>
       <c r="C242" s="3">
-        <v>4317</v>
+        <v>6426</v>
       </c>
       <c r="D242" s="2">
-        <v>451</v>
+        <v>672</v>
       </c>
       <c r="E242" s="8">
         <v>2019</v>
@@ -7030,17 +7275,17 @@
       <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:10" ht="21">
-      <c r="A243" s="7" t="s">
-        <v>218</v>
+      <c r="A243" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="B243" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C243" s="2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E243" s="8">
         <v>2019</v>
@@ -7054,17 +7299,17 @@
       <c r="J243" s="2"/>
     </row>
     <row r="244" spans="1:10" ht="21">
-      <c r="A244" s="7" t="s">
-        <v>249</v>
+      <c r="A244" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>3050</v>
+        <v>4542</v>
       </c>
       <c r="C244" s="3">
-        <v>3003</v>
+        <v>4473</v>
       </c>
       <c r="D244" s="2">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E244" s="8">
         <v>2019</v>
@@ -7078,17 +7323,17 @@
       <c r="J244" s="2"/>
     </row>
     <row r="245" spans="1:10" ht="21">
-      <c r="A245" s="7" t="s">
-        <v>219</v>
+      <c r="A245" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="B245" s="3">
-        <v>69010</v>
+        <v>102815</v>
       </c>
       <c r="C245" s="2">
         <v>0</v>
       </c>
       <c r="D245" s="3">
-        <v>69010</v>
+        <v>102815</v>
       </c>
       <c r="E245" s="8">
         <v>2019</v>
